--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF991B5-EDB6-4813-849E-E883D3A3C979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811487C6-65F9-4B70-AEA8-04453F7F757C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,17 +41,13 @@
     <sheet name="16" sheetId="26" r:id="rId26"/>
     <sheet name="15" sheetId="27" r:id="rId27"/>
     <sheet name="14" sheetId="28" r:id="rId28"/>
-    <sheet name="13" sheetId="29" r:id="rId29"/>
-    <sheet name="12" sheetId="30" r:id="rId30"/>
-    <sheet name="11" sheetId="31" r:id="rId31"/>
-    <sheet name="10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="71">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -187,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        23:10:17   Log-Likelihood:                -154.98
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-51
+Time:                        20:51:50   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -196,7 +192,7 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6952      0.288      2.416      0.016       0.130       1.261
+Ones                  0.2815      0.239      1.178      0.240      -0.188       0.751
 S1_DRP                0.0285      0.023      1.264      0.207      -0.016       0.073
 S1_BAD                0.0081      0.030      0.269      0.788      -0.051       0.067
 S1_CVL               -0.0021      0.006     -0.349      0.727      -0.014       0.010
@@ -220,33 +216,33 @@
 S2_BEST_GRD          -0.0012      0.003     -0.412      0.681      -0.007       0.005
 S2_WORST_GRD         -0.0001      0.003     -0.034      0.973      -0.007       0.006
 S2_VS_S1             -0.0038      0.005     -0.743      0.458      -0.014       0.006
-SchoolRegion_1       -0.3192      0.123     -2.599      0.010      -0.560      -0.078
-SchoolRegion_2       -0.0657      0.060     -1.100      0.272      -0.183       0.052
-SchoolRegion_3       -0.0727      0.089     -0.813      0.417      -0.248       0.103
-EdTypeCode_1         -0.0456      0.082     -0.555      0.579      -0.207       0.116
-EdTypeCode_2          0.0440      0.114      0.386      0.700      -0.180       0.268
-SchoolType_1          0.1382      0.220      0.628      0.530      -0.294       0.571
-SchoolType_2          0.1161      0.216      0.536      0.592      -0.309       0.541
-SchoolType_3         -0.0127      0.212     -0.060      0.952      -0.429       0.403
-SchoolType_4          0.1136      0.209      0.543      0.588      -0.298       0.525
-MotherEd_1           -0.1219      0.070     -1.737      0.083      -0.260       0.016
-MotherEd_2           -0.1779      0.105     -1.687      0.092      -0.385       0.029
-MotherEd_3           -0.1827      0.071     -2.563      0.011      -0.323      -0.043
-MotherEd_4           -0.1870      0.088     -2.117      0.035      -0.361      -0.013
-MotherEd_5           -0.2658      0.105     -2.523      0.012      -0.473      -0.059
-MotherEd_6           -0.1255      0.078     -1.601      0.110      -0.279       0.028
-MotherEd_7           -0.1773      0.081     -2.180      0.030      -0.337      -0.018
+SchoolRegion_1        0.2535      0.135      1.883      0.060      -0.011       0.518
+SchoolRegion_2        0.3192      0.123      2.599      0.010       0.078       0.560
+SchoolRegion_3        0.2465      0.151      1.630      0.104      -0.051       0.544
+EdTypeCode_1          0.0896      0.085      1.059      0.290      -0.077       0.256
+EdTypeCode_2          0.0456      0.082      0.555      0.579      -0.116       0.207
+SchoolType_1         -0.0220      0.087     -0.254      0.800      -0.193       0.149
+SchoolType_2         -0.1509      0.075     -2.018      0.044      -0.298      -0.004
+SchoolType_3         -0.0246      0.071     -0.348      0.728      -0.163       0.114
+SchoolType_4         -0.1382      0.220     -0.628      0.530      -0.571       0.294
+MotherEd_1            0.0097      0.080      0.122      0.903      -0.147       0.166
+MotherEd_2            0.0043      0.069      0.063      0.950      -0.131       0.140
+MotherEd_3            0.0091      0.103      0.089      0.929      -0.193       0.212
+MotherEd_4            0.0651      0.068      0.961      0.337      -0.068       0.198
+MotherEd_5            0.0615      0.077      0.800      0.424      -0.090       0.213
+MotherEd_6           -0.0788      0.104     -0.758      0.449      -0.283       0.125
+MotherEd_7            0.1870      0.088      2.117      0.035       0.013       0.361
 Campus_1              0.2249      0.125      1.796      0.073      -0.021       0.471
 PostulationType_1     0.1557      0.081      1.927      0.055      -0.003       0.314
 ==============================================================================
 Omnibus:                       37.056   Durbin-Watson:                   1.922
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.474
 Skew:                           0.510   Prob(JB):                     5.45e-13
-Kurtosis:                       4.219   Cond. No.                     2.82e+03
+Kurtosis:                       4.219   Cond. No.                     1.86e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.82e+03. This might indicate that there are
+[2] The condition number is large, 1.86e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -255,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        23:10:17   Log-Likelihood:                -154.98
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.89e-52
+Time:                        20:51:50   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -264,7 +260,7 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6950      0.287      2.418      0.016       0.130       1.260
+Ones                  0.2815      0.239      1.179      0.239      -0.188       0.751
 S1_DRP                0.0285      0.023      1.267      0.206      -0.016       0.073
 S1_BAD                0.0080      0.030      0.267      0.789      -0.051       0.067
 S1_CVL               -0.0022      0.006     -0.351      0.726      -0.014       0.010
@@ -287,33 +283,33 @@
 S2_GRD_6TO7          -0.0590      0.031     -1.935      0.054      -0.119       0.001
 S2_BEST_GRD          -0.0012      0.003     -0.420      0.675      -0.007       0.004
 S2_VS_S1             -0.0039      0.004     -1.066      0.287      -0.011       0.003
-SchoolRegion_1       -0.3192      0.123     -2.602      0.010      -0.560      -0.078
-SchoolRegion_2       -0.0657      0.060     -1.101      0.272      -0.183       0.052
-SchoolRegion_3       -0.0728      0.089     -0.815      0.415      -0.248       0.103
-EdTypeCode_1         -0.0456      0.082     -0.556      0.578      -0.207       0.116
-EdTypeCode_2          0.0439      0.114      0.385      0.700      -0.180       0.267
-SchoolType_1          0.1384      0.220      0.630      0.529      -0.293       0.570
-SchoolType_2          0.1162      0.216      0.537      0.591      -0.309       0.541
-SchoolType_3         -0.0126      0.212     -0.059      0.953      -0.428       0.403
-SchoolType_4          0.1136      0.209      0.544      0.587      -0.297       0.524
-MotherEd_1           -0.1219      0.070     -1.740      0.082      -0.260       0.016
-MotherEd_2           -0.1777      0.105     -1.689      0.092      -0.384       0.029
-MotherEd_3           -0.1827      0.071     -2.567      0.011      -0.323      -0.043
-MotherEd_4           -0.1871      0.088     -2.122      0.034      -0.360      -0.014
-MotherEd_5           -0.2658      0.105     -2.527      0.012      -0.473      -0.059
-MotherEd_6           -0.1254      0.078     -1.603      0.110      -0.279       0.028
-MotherEd_7           -0.1773      0.081     -2.182      0.030      -0.337      -0.018
+SchoolRegion_1        0.2535      0.135      1.885      0.060      -0.011       0.518
+SchoolRegion_2        0.3192      0.123      2.602      0.010       0.078       0.560
+SchoolRegion_3        0.2464      0.151      1.632      0.103      -0.050       0.543
+EdTypeCode_1          0.0895      0.084      1.060      0.290      -0.076       0.255
+EdTypeCode_2          0.0456      0.082      0.556      0.578      -0.116       0.207
+SchoolType_1         -0.0222      0.087     -0.256      0.798      -0.192       0.148
+SchoolType_2         -0.1509      0.075     -2.021      0.044      -0.298      -0.004
+SchoolType_3         -0.0247      0.071     -0.350      0.726      -0.163       0.114
+SchoolType_4         -0.1384      0.220     -0.630      0.529      -0.570       0.293
+MotherEd_1            0.0098      0.079      0.123      0.902      -0.146       0.166
+MotherEd_2            0.0044      0.069      0.064      0.949      -0.131       0.140
+MotherEd_3            0.0094      0.103      0.092      0.927      -0.192       0.211
+MotherEd_4            0.0652      0.068      0.963      0.336      -0.068       0.198
+MotherEd_5            0.0617      0.077      0.803      0.422      -0.089       0.212
+MotherEd_6           -0.0788      0.104     -0.759      0.448      -0.283       0.125
+MotherEd_7            0.1871      0.088      2.122      0.034       0.014       0.360
 Campus_1              0.2251      0.125      1.803      0.072      -0.020       0.470
 PostulationType_1     0.1556      0.081      1.929      0.054      -0.003       0.314
 ==============================================================================
 Omnibus:                       37.067   Durbin-Watson:                   1.922
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.510
 Skew:                           0.510   Prob(JB):                     5.36e-13
-Kurtosis:                       4.219   Cond. No.                     2.67e+03
+Kurtosis:                       4.219   Cond. No.                     1.77e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.67e+03. This might indicate that there are
+[2] The condition number is large, 1.77e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -322,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        23:10:17   Log-Likelihood:                -154.98
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.04e-53
+Time:                        20:51:50   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -331,7 +327,7 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6952      0.287      2.421      0.016       0.131       1.259
+Ones                  0.2814      0.239      1.180      0.239      -0.187       0.750
 S1_DRP                0.0285      0.022      1.267      0.206      -0.016       0.073
 S1_BAD                0.0082      0.030      0.278      0.781      -0.050       0.066
 S1_CVL               -0.0021      0.006     -0.348      0.728      -0.014       0.010
@@ -353,33 +349,33 @@
 S2_GRD_6TO7          -0.0589      0.030     -1.938      0.053      -0.119       0.001
 S2_BEST_GRD          -0.0011      0.003     -0.421      0.674      -0.006       0.004
 S2_VS_S1             -0.0040      0.003     -1.158      0.247      -0.011       0.003
-SchoolRegion_1       -0.3194      0.122     -2.608      0.009      -0.560      -0.079
-SchoolRegion_2       -0.0654      0.059     -1.101      0.271      -0.182       0.051
-SchoolRegion_3       -0.0726      0.089     -0.815      0.416      -0.248       0.103
-EdTypeCode_1         -0.0458      0.082     -0.560      0.576      -0.207       0.115
-EdTypeCode_2          0.0440      0.114      0.387      0.699      -0.179       0.267
-SchoolType_1          0.1383      0.220      0.630      0.529      -0.293       0.570
-SchoolType_2          0.1161      0.216      0.538      0.591      -0.308       0.541
-SchoolType_3         -0.0125      0.211     -0.059      0.953      -0.428       0.403
-SchoolType_4          0.1136      0.209      0.544      0.587      -0.297       0.524
-MotherEd_1           -0.1220      0.070     -1.743      0.082      -0.259       0.016
-MotherEd_2           -0.1775      0.105     -1.690      0.092      -0.384       0.029
-MotherEd_3           -0.1826      0.071     -2.569      0.010      -0.322      -0.043
-MotherEd_4           -0.1869      0.088     -2.124      0.034      -0.360      -0.014
-MotherEd_5           -0.2655      0.105     -2.531      0.012      -0.472      -0.059
-MotherEd_6           -0.1254      0.078     -1.604      0.109      -0.279       0.028
-MotherEd_7           -0.1773      0.081     -2.185      0.029      -0.337      -0.018
+SchoolRegion_1        0.2540      0.134      1.895      0.059      -0.009       0.517
+SchoolRegion_2        0.3194      0.122      2.608      0.009       0.079       0.560
+SchoolRegion_3        0.2468      0.151      1.639      0.102      -0.049       0.543
+EdTypeCode_1          0.0898      0.084      1.067      0.287      -0.076       0.255
+EdTypeCode_2          0.0458      0.082      0.560      0.576      -0.115       0.207
+SchoolType_1         -0.0222      0.087     -0.256      0.798      -0.192       0.148
+SchoolType_2         -0.1508      0.075     -2.023      0.044      -0.297      -0.004
+SchoolType_3         -0.0247      0.070     -0.351      0.726      -0.163       0.114
+SchoolType_4         -0.1383      0.220     -0.630      0.529      -0.570       0.293
+MotherEd_1            0.0095      0.079      0.120      0.904      -0.146       0.165
+MotherEd_2            0.0042      0.069      0.062      0.951      -0.131       0.139
+MotherEd_3            0.0094      0.103      0.091      0.927      -0.192       0.211
+MotherEd_4            0.0649      0.067      0.963      0.336      -0.068       0.197
+MotherEd_5            0.0615      0.077      0.802      0.423      -0.089       0.212
+MotherEd_6           -0.0787      0.104     -0.759      0.448      -0.282       0.125
+MotherEd_7            0.1869      0.088      2.124      0.034       0.014       0.360
 Campus_1              0.2256      0.124      1.814      0.070      -0.019       0.470
 PostulationType_1     0.1558      0.080      1.937      0.053      -0.002       0.314
 ==============================================================================
 Omnibus:                       37.128   Durbin-Watson:                   1.922
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.641
 Skew:                           0.510   Prob(JB):                     5.02e-13
-Kurtosis:                       4.221   Cond. No.                     2.47e+03
+Kurtosis:                       4.221   Cond. No.                     1.63e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 2.47e+03. This might indicate that there are
+[2] The condition number is large, 1.63e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -388,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        23:10:17   Log-Likelihood:                -154.99
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.21e-53
+Time:                        20:51:50   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -397,118 +393,118 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6833      0.205      3.339      0.001       0.281       1.085
+Ones                  0.2845      0.233      1.220      0.223      -0.174       0.742
 S1_DRP                0.0285      0.022      1.269      0.205      -0.016       0.073
-S1_BAD                0.0082      0.030      0.278      0.781      -0.050       0.066
-S1_CVL               -0.0021      0.006     -0.348      0.728      -0.014       0.010
-S1_GRD_1TO19          0.0517      0.037      1.403      0.161      -0.021       0.124
-S1_GRD_2TO29          0.0281      0.038      0.733      0.464      -0.047       0.103
-S1_GRD_3TO39          0.0162      0.036      0.445      0.657      -0.055       0.088
-S1_GRD_4TO49         -0.0422      0.038     -1.106      0.269      -0.117       0.033
-S1_GRD_5TO59         -0.0179      0.041     -0.442      0.658      -0.098       0.062
-S1_GRD_6TO7           0.0124      0.048      0.259      0.796      -0.082       0.107
-S1_BEST_GRD          -0.0016      0.003     -0.583      0.560      -0.007       0.004
-S2_DRP               -0.0056      0.011     -0.514      0.607      -0.027       0.016
-S2_BAD                0.0118      0.013      0.905      0.366      -0.014       0.037
-S2_CVL               -0.0216      0.019     -1.123      0.262      -0.059       0.016
-S2_GRD_1TO19         -0.0580      0.032     -1.795      0.073      -0.122       0.005
-S2_GRD_2TO29         -0.0086      0.023     -0.380      0.704      -0.053       0.036
-S2_GRD_3TO39         -0.0576      0.021     -2.726      0.007      -0.099      -0.016
-S2_GRD_4TO49         -0.0763      0.021     -3.564      0.000      -0.118      -0.034
-S2_GRD_5TO59         -0.0568      0.023     -2.467      0.014      -0.102      -0.012
-S2_GRD_6TO7          -0.0589      0.030     -1.939      0.053      -0.119       0.001
-S2_BEST_GRD          -0.0011      0.003     -0.423      0.673      -0.006       0.004
+S1_BAD                0.0083      0.030      0.281      0.779      -0.050       0.066
+S1_CVL               -0.0021      0.006     -0.347      0.728      -0.014       0.010
+S1_GRD_1TO19          0.0518      0.037      1.408      0.160      -0.020       0.124
+S1_GRD_2TO29          0.0281      0.038      0.734      0.464      -0.047       0.103
+S1_GRD_3TO39          0.0163      0.036      0.448      0.655      -0.055       0.088
+S1_GRD_4TO49         -0.0420      0.038     -1.100      0.272      -0.117       0.033
+S1_GRD_5TO59         -0.0178      0.041     -0.438      0.661      -0.097       0.062
+S1_GRD_6TO7           0.0126      0.048      0.262      0.794      -0.082       0.107
+S1_BEST_GRD          -0.0016      0.003     -0.584      0.560      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.519      0.604      -0.027       0.016
+S2_BAD                0.0118      0.013      0.906      0.365      -0.014       0.037
+S2_CVL               -0.0216      0.019     -1.122      0.262      -0.059       0.016
+S2_GRD_1TO19         -0.0581      0.032     -1.796      0.073      -0.122       0.005
+S2_GRD_2TO29         -0.0087      0.023     -0.384      0.701      -0.053       0.036
+S2_GRD_3TO39         -0.0576      0.021     -2.730      0.007      -0.099      -0.016
+S2_GRD_4TO49         -0.0764      0.021     -3.564      0.000      -0.119      -0.034
+S2_GRD_5TO59         -0.0569      0.023     -2.470      0.014      -0.102      -0.012
+S2_GRD_6TO7          -0.0590      0.030     -1.945      0.052      -0.119       0.001
+S2_BEST_GRD          -0.0011      0.003     -0.422      0.673      -0.006       0.004
 S2_VS_S1             -0.0040      0.003     -1.158      0.247      -0.011       0.003
-SchoolRegion_1       -0.3192      0.122     -2.611      0.009      -0.559      -0.079
-SchoolRegion_2       -0.0654      0.059     -1.102      0.271      -0.182       0.051
-SchoolRegion_3       -0.0722      0.089     -0.813      0.417      -0.247       0.102
-EdTypeCode_1         -0.0465      0.081     -0.576      0.565      -0.205       0.112
-EdTypeCode_2          0.0446      0.113      0.394      0.694      -0.178       0.267
-SchoolType_1          0.1506      0.074      2.025      0.043       0.004       0.297
-SchoolType_2          0.1284      0.063      2.029      0.043       0.004       0.253
-SchoolType_4          0.1258      0.036      3.488      0.001       0.055       0.197
-MotherEd_1           -0.1219      0.070     -1.744      0.082      -0.259       0.015
-MotherEd_2           -0.1775      0.105     -1.692      0.091      -0.384       0.029
-MotherEd_3           -0.1825      0.071     -2.571      0.010      -0.322      -0.043
-MotherEd_4           -0.1868      0.088     -2.126      0.034      -0.360      -0.014
-MotherEd_5           -0.2656      0.105     -2.534      0.012      -0.472      -0.060
-MotherEd_6           -0.1255      0.078     -1.606      0.109      -0.279       0.028
-MotherEd_7           -0.1773      0.081     -2.187      0.029      -0.337      -0.018
-Campus_1              0.2253      0.124      1.815      0.070      -0.019       0.469
-PostulationType_1     0.1560      0.080      1.943      0.053      -0.002       0.314
-==============================================================================
-Omnibus:                       37.168   Durbin-Watson:                   1.922
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.686
-Skew:                           0.511   Prob(JB):                     4.91e-13
-Kurtosis:                       4.221   Cond. No.                     1.21e+03
+SchoolRegion_1        0.2539      0.134      1.896      0.059      -0.009       0.517
+SchoolRegion_2        0.3195      0.122      2.611      0.009       0.079       0.560
+SchoolRegion_3        0.2467      0.150      1.640      0.102      -0.049       0.542
+EdTypeCode_1          0.0899      0.084      1.070      0.285      -0.075       0.255
+EdTypeCode_2          0.0455      0.082      0.557      0.577      -0.115       0.206
+SchoolType_1         -0.0220      0.086     -0.255      0.799      -0.192       0.148
+SchoolType_2         -0.1507      0.074     -2.024      0.044      -0.297      -0.004
+SchoolType_3         -0.0246      0.070     -0.349      0.727      -0.163       0.114
+SchoolType_4         -0.1378      0.219     -0.629      0.530      -0.568       0.293
+MotherEd_1            0.0062      0.057      0.108      0.914      -0.107       0.119
+MotherEd_3            0.0060      0.087      0.069      0.945      -0.165       0.177
+MotherEd_4            0.0615      0.040      1.557      0.120      -0.016       0.139
+MotherEd_5            0.0581      0.054      1.084      0.279      -0.047       0.163
+MotherEd_6           -0.0821      0.088     -0.936      0.350      -0.254       0.090
+MotherEd_7            0.1835      0.069      2.642      0.008       0.047       0.320
+Campus_1              0.2254      0.124      1.815      0.070      -0.019       0.469
+PostulationType_1     0.1559      0.080      1.940      0.053      -0.002       0.314
+==============================================================================
+Omnibus:                       37.090   Durbin-Watson:                   1.923
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.605
+Skew:                           0.510   Prob(JB):                     5.11e-13
+Kurtosis:                       4.221   Cond. No.                     1.61e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.21e+03. This might indicate that there are
+[2] The condition number is large, 1.61e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.500
-Model:                            OLS   Adj. R-squared:                  0.462
-Method:                 Least Squares   F-statistic:                     13.46
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.14e-54
-Time:                        23:10:17   Log-Likelihood:                -155.02
+Model:                            OLS   Adj. R-squared:                  0.463
+Method:                 Least Squares   F-statistic:                     13.47
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.97e-54
+Time:                        20:51:50   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
-Df Residuals:                     499   BIC:                             548.9
+Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7022      0.191      3.677      0.000       0.327       1.077
-S1_DRP                0.0259      0.020      1.286      0.199      -0.014       0.066
-S1_BAD                0.0033      0.023      0.145      0.884      -0.041       0.048
-S1_CVL               -0.0019      0.006     -0.317      0.752      -0.014       0.010
-S1_GRD_1TO19          0.0457      0.029      1.597      0.111      -0.011       0.102
-S1_GRD_2TO29          0.0208      0.026      0.799      0.425      -0.030       0.072
-S1_GRD_3TO39          0.0083      0.020      0.420      0.674      -0.030       0.047
-S1_GRD_4TO49         -0.0506      0.020     -2.560      0.011      -0.089      -0.012
-S1_GRD_5TO59         -0.0270      0.021     -1.303      0.193      -0.068       0.014
-S1_BEST_GRD          -0.0013      0.002     -0.523      0.601      -0.006       0.004
-S2_DRP               -0.0054      0.011     -0.498      0.619      -0.027       0.016
-S2_BAD                0.0125      0.013      0.977      0.329      -0.013       0.037
-S2_CVL               -0.0214      0.019     -1.117      0.265      -0.059       0.016
-S2_GRD_1TO19         -0.0580      0.032     -1.795      0.073      -0.121       0.005
-S2_GRD_2TO29         -0.0079      0.023     -0.352      0.725      -0.052       0.036
-S2_GRD_3TO39         -0.0569      0.021     -2.717      0.007      -0.098      -0.016
-S2_GRD_4TO49         -0.0749      0.021     -3.611      0.000      -0.116      -0.034
-S2_GRD_5TO59         -0.0549      0.022     -2.515      0.012      -0.098      -0.012
-S2_GRD_6TO7          -0.0565      0.029     -1.955      0.051      -0.113       0.000
-S2_BEST_GRD          -0.0010      0.003     -0.380      0.704      -0.006       0.004
-S2_VS_S1             -0.0042      0.003     -1.315      0.189      -0.011       0.002
-SchoolRegion_1       -0.3183      0.122     -2.607      0.009      -0.558      -0.078
-SchoolRegion_2       -0.0652      0.059     -1.100      0.272      -0.182       0.051
-SchoolRegion_3       -0.0726      0.089     -0.819      0.413      -0.247       0.102
-EdTypeCode_1         -0.0457      0.081     -0.566      0.571      -0.204       0.113
-EdTypeCode_2          0.0441      0.113      0.390      0.697      -0.178       0.266
-SchoolType_1          0.1501      0.074      2.021      0.044       0.004       0.296
-SchoolType_2          0.1270      0.063      2.016      0.044       0.003       0.251
-SchoolType_4          0.1254      0.036      3.483      0.001       0.055       0.196
-MotherEd_1           -0.1226      0.070     -1.756      0.080      -0.260       0.015
-MotherEd_2           -0.1776      0.105     -1.694      0.091      -0.384       0.028
-MotherEd_3           -0.1822      0.071     -2.570      0.010      -0.322      -0.043
-MotherEd_4           -0.1872      0.088     -2.132      0.034      -0.360      -0.015
-MotherEd_5           -0.2657      0.105     -2.538      0.011      -0.471      -0.060
-MotherEd_6           -0.1255      0.078     -1.609      0.108      -0.279       0.028
-MotherEd_7           -0.1780      0.081     -2.199      0.028      -0.337      -0.019
-Campus_1              0.2267      0.124      1.829      0.068      -0.017       0.470
-PostulationType_1     0.1556      0.080      1.940      0.053      -0.002       0.313
-==============================================================================
-Omnibus:                       37.256   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.069
-Skew:                           0.510   Prob(JB):                     4.05e-13
-Kurtosis:                       4.229   Cond. No.                     1.15e+03
+Ones                  0.2854      0.232      1.228      0.220      -0.171       0.742
+S1_DRP                0.0285      0.022      1.270      0.205      -0.016       0.073
+S1_BAD                0.0083      0.030      0.283      0.777      -0.050       0.066
+S1_CVL               -0.0021      0.006     -0.349      0.728      -0.014       0.010
+S1_GRD_1TO19          0.0517      0.037      1.408      0.160      -0.020       0.124
+S1_GRD_2TO29          0.0283      0.038      0.741      0.459      -0.047       0.103
+S1_GRD_3TO39          0.0163      0.036      0.447      0.655      -0.055       0.088
+S1_GRD_4TO49         -0.0421      0.038     -1.104      0.270      -0.117       0.033
+S1_GRD_5TO59         -0.0178      0.040     -0.439      0.661      -0.097       0.062
+S1_GRD_6TO7           0.0125      0.048      0.261      0.794      -0.082       0.107
+S1_BEST_GRD          -0.0016      0.003     -0.592      0.554      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.520      0.603      -0.027       0.016
+S2_BAD                0.0118      0.013      0.907      0.365      -0.014       0.037
+S2_CVL               -0.0215      0.019     -1.121      0.263      -0.059       0.016
+S2_GRD_1TO19         -0.0579      0.032     -1.798      0.073      -0.121       0.005
+S2_GRD_2TO29         -0.0087      0.023     -0.383      0.702      -0.053       0.036
+S2_GRD_3TO39         -0.0576      0.021     -2.732      0.007      -0.099      -0.016
+S2_GRD_4TO49         -0.0763      0.021     -3.569      0.000      -0.118      -0.034
+S2_GRD_5TO59         -0.0567      0.023     -2.474      0.014      -0.102      -0.012
+S2_GRD_6TO7          -0.0590      0.030     -1.947      0.052      -0.119       0.001
+S2_BEST_GRD          -0.0011      0.003     -0.422      0.673      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.164      0.245      -0.011       0.003
+SchoolRegion_1        0.2536      0.134      1.897      0.058      -0.009       0.516
+SchoolRegion_2        0.3192      0.122      2.613      0.009       0.079       0.559
+SchoolRegion_3        0.2465      0.150      1.640      0.102      -0.049       0.542
+EdTypeCode_1          0.0902      0.084      1.077      0.282      -0.074       0.255
+EdTypeCode_2          0.0456      0.082      0.559      0.576      -0.115       0.206
+SchoolType_1         -0.0218      0.086     -0.252      0.801      -0.191       0.148
+SchoolType_2         -0.1506      0.074     -2.025      0.043      -0.297      -0.004
+SchoolType_3         -0.0243      0.070     -0.346      0.729      -0.162       0.114
+SchoolType_4         -0.1381      0.219     -0.631      0.529      -0.568       0.292
+MotherEd_1            0.0056      0.057      0.099      0.921      -0.106       0.117
+MotherEd_4            0.0609      0.038      1.583      0.114      -0.015       0.137
+MotherEd_5            0.0575      0.053      1.087      0.277      -0.046       0.161
+MotherEd_6           -0.0827      0.087     -0.949      0.343      -0.254       0.089
+MotherEd_7            0.1830      0.069      2.654      0.008       0.048       0.318
+Campus_1              0.2253      0.124      1.816      0.070      -0.018       0.469
+PostulationType_1     0.1558      0.080      1.941      0.053      -0.002       0.314
+==============================================================================
+Omnibus:                       37.123   Durbin-Watson:                   1.922
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.649
+Skew:                           0.510   Prob(JB):                     5.00e-13
+Kurtosis:                       4.221   Cond. No.                     1.61e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.15e+03. This might indicate that there are
+[2] The condition number is large, 1.61e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -516,625 +512,633 @@
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     13.86
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.65e-54
-Time:                        23:10:17   Log-Likelihood:                -155.03
-No. Observations:                 537   AIC:                             384.1
+Method:                 Least Squares   F-statistic:                     13.87
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.59e-54
+Time:                        20:51:50   Log-Likelihood:                -154.99
+No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7161      0.165      4.334      0.000       0.391       1.041
-S1_DRP                0.0241      0.016      1.534      0.126      -0.007       0.055
-S1_CVL               -0.0017      0.006     -0.292      0.770      -0.013       0.010
-S1_GRD_1TO19          0.0441      0.026      1.671      0.095      -0.008       0.096
-S1_GRD_2TO29          0.0195      0.024      0.800      0.424      -0.028       0.067
-S1_GRD_3TO39          0.0069      0.017      0.399      0.690      -0.027       0.041
-S1_GRD_4TO49         -0.0521      0.017     -3.070      0.002      -0.085      -0.019
-S1_GRD_5TO59         -0.0284      0.018     -1.551      0.122      -0.064       0.008
-S1_BEST_GRD          -0.0014      0.002     -0.603      0.547      -0.006       0.003
-S2_DRP               -0.0054      0.011     -0.494      0.622      -0.027       0.016
-S2_BAD                0.0129      0.012      1.038      0.300      -0.011       0.037
-S2_CVL               -0.0214      0.019     -1.118      0.264      -0.059       0.016
-S2_GRD_1TO19         -0.0581      0.032     -1.801      0.072      -0.121       0.005
-S2_GRD_2TO29         -0.0079      0.023     -0.350      0.727      -0.052       0.036
-S2_GRD_3TO39         -0.0567      0.021     -2.716      0.007      -0.098      -0.016
-S2_GRD_4TO49         -0.0749      0.021     -3.614      0.000      -0.116      -0.034
-S2_GRD_5TO59         -0.0550      0.022     -2.520      0.012      -0.098      -0.012
-S2_GRD_6TO7          -0.0568      0.029     -1.974      0.049      -0.113      -0.000
-S2_BEST_GRD          -0.0010      0.003     -0.377      0.706      -0.006       0.004
-S2_VS_S1             -0.0043      0.003     -1.321      0.187      -0.011       0.002
-SchoolRegion_1       -0.3177      0.122     -2.606      0.009      -0.557      -0.078
-SchoolRegion_2       -0.0647      0.059     -1.094      0.274      -0.181       0.051
-SchoolRegion_3       -0.0722      0.089     -0.815      0.415      -0.246       0.102
-EdTypeCode_1         -0.0463      0.081     -0.575      0.565      -0.205       0.112
-EdTypeCode_2          0.0438      0.113      0.388      0.698      -0.178       0.265
-SchoolType_1          0.1500      0.074      2.022      0.044       0.004       0.296
-SchoolType_2          0.1266      0.063      2.013      0.045       0.003       0.250
-SchoolType_4          0.1255      0.036      3.491      0.001       0.055       0.196
-MotherEd_1           -0.1226      0.070     -1.758      0.079      -0.260       0.014
-MotherEd_2           -0.1773      0.105     -1.693      0.091      -0.383       0.028
-MotherEd_3           -0.1824      0.071     -2.574      0.010      -0.322      -0.043
-MotherEd_4           -0.1875      0.088     -2.139      0.033      -0.360      -0.015
-MotherEd_5           -0.2658      0.105     -2.541      0.011      -0.471      -0.060
-MotherEd_6           -0.1258      0.078     -1.614      0.107      -0.279       0.027
-MotherEd_7           -0.1784      0.081     -2.208      0.028      -0.337      -0.020
-Campus_1              0.2271      0.124      1.834      0.067      -0.016       0.470
-PostulationType_1     0.1556      0.080      1.942      0.053      -0.002       0.313
-==============================================================================
-Omnibus:                       37.136   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.998
-Skew:                           0.508   Prob(JB):                     4.20e-13
-Kurtosis:                       4.231   Cond. No.                     1.09e+03
+Ones                  0.2861      0.232      1.232      0.218      -0.170       0.742
+S1_DRP                0.0284      0.022      1.269      0.205      -0.016       0.072
+S1_BAD                0.0082      0.029      0.277      0.782      -0.050       0.066
+S1_CVL               -0.0021      0.006     -0.347      0.729      -0.014       0.010
+S1_GRD_1TO19          0.0516      0.037      1.408      0.160      -0.020       0.124
+S1_GRD_2TO29          0.0281      0.038      0.738      0.461      -0.047       0.103
+S1_GRD_3TO39          0.0160      0.036      0.442      0.659      -0.055       0.087
+S1_GRD_4TO49         -0.0424      0.038     -1.114      0.266      -0.117       0.032
+S1_GRD_5TO59         -0.0180      0.040     -0.446      0.656      -0.097       0.061
+S1_GRD_6TO7           0.0123      0.048      0.256      0.798      -0.082       0.106
+S1_BEST_GRD          -0.0016      0.003     -0.590      0.556      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.518      0.605      -0.027       0.016
+S2_BAD                0.0118      0.013      0.912      0.362      -0.014       0.037
+S2_CVL               -0.0215      0.019     -1.124      0.262      -0.059       0.016
+S2_GRD_1TO19         -0.0580      0.032     -1.802      0.072      -0.121       0.005
+S2_GRD_2TO29         -0.0087      0.023     -0.382      0.702      -0.053       0.036
+S2_GRD_3TO39         -0.0575      0.021     -2.733      0.007      -0.099      -0.016
+S2_GRD_4TO49         -0.0763      0.021     -3.571      0.000      -0.118      -0.034
+S2_GRD_5TO59         -0.0568      0.023     -2.477      0.014      -0.102      -0.012
+S2_GRD_6TO7          -0.0591      0.030     -1.950      0.052      -0.119       0.000
+S2_BEST_GRD          -0.0011      0.003     -0.419      0.675      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.170      0.242      -0.011       0.003
+SchoolRegion_1        0.2538      0.134      1.900      0.058      -0.009       0.516
+SchoolRegion_2        0.3190      0.122      2.614      0.009       0.079       0.559
+SchoolRegion_3        0.2463      0.150      1.641      0.101      -0.049       0.541
+EdTypeCode_1          0.0900      0.084      1.075      0.283      -0.074       0.254
+EdTypeCode_2          0.0455      0.081      0.558      0.577      -0.115       0.206
+SchoolType_1         -0.0216      0.086     -0.250      0.802      -0.191       0.148
+SchoolType_2         -0.1495      0.073     -2.034      0.042      -0.294      -0.005
+SchoolType_3         -0.0238      0.070     -0.340      0.734      -0.161       0.114
+SchoolType_4         -0.1377      0.219     -0.630      0.529      -0.567       0.292
+MotherEd_4            0.0596      0.036      1.650      0.100      -0.011       0.131
+MotherEd_5            0.0560      0.051      1.107      0.269      -0.043       0.155
+MotherEd_6           -0.0840      0.086     -0.975      0.330      -0.253       0.085
+MotherEd_7            0.1817      0.068      2.683      0.008       0.049       0.315
+Campus_1              0.2257      0.124      1.821      0.069      -0.018       0.469
+PostulationType_1     0.1560      0.080      1.945      0.052      -0.002       0.313
+==============================================================================
+Omnibus:                       37.195   Durbin-Watson:                   1.922
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.735
+Skew:                           0.511   Prob(JB):                     4.79e-13
+Kurtosis:                       4.221   Cond. No.                     1.61e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.09e+03. This might indicate that there are
+[2] The condition number is large, 1.61e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.499
+Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
-Method:                 Least Squares   F-statistic:                     14.28
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.50e-55
-Time:                        23:10:18   Log-Likelihood:                -155.08
-No. Observations:                 537   AIC:                             382.2
-Df Residuals:                     501   BIC:                             536.5
+Method:                 Least Squares   F-statistic:                     14.29
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.30e-55
+Time:                        20:51:50   Log-Likelihood:                -155.03
+No. Observations:                 537   AIC:                             382.1
+Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7066      0.162      4.365      0.000       0.389       1.025
-S1_DRP                0.0227      0.015      1.518      0.130      -0.007       0.052
-S1_GRD_1TO19          0.0437      0.026      1.658      0.098      -0.008       0.095
-S1_GRD_2TO29          0.0193      0.024      0.794      0.427      -0.028       0.067
-S1_GRD_3TO39          0.0069      0.017      0.399      0.690      -0.027       0.041
-S1_GRD_4TO49         -0.0520      0.017     -3.069      0.002      -0.085      -0.019
-S1_GRD_5TO59         -0.0286      0.018     -1.569      0.117      -0.064       0.007
-S1_BEST_GRD          -0.0014      0.002     -0.621      0.535      -0.006       0.003
-S2_DRP               -0.0055      0.011     -0.508      0.612      -0.027       0.016
-S2_BAD                0.0125      0.012      1.013      0.311      -0.012       0.037
-S2_CVL               -0.0214      0.019     -1.120      0.263      -0.059       0.016
-S2_GRD_1TO19         -0.0582      0.032     -1.806      0.072      -0.121       0.005
-S2_GRD_2TO29         -0.0082      0.022     -0.363      0.717      -0.052       0.036
-S2_GRD_3TO39         -0.0572      0.021     -2.749      0.006      -0.098      -0.016
-S2_GRD_4TO49         -0.0752      0.021     -3.638      0.000      -0.116      -0.035
-S2_GRD_5TO59         -0.0555      0.022     -2.556      0.011      -0.098      -0.013
-S2_GRD_6TO7          -0.0579      0.029     -2.032      0.043      -0.114      -0.002
-S2_BEST_GRD          -0.0010      0.003     -0.375      0.708      -0.006       0.004
-S2_VS_S1             -0.0042      0.003     -1.319      0.188      -0.011       0.002
-SchoolRegion_1       -0.3206      0.121     -2.641      0.009      -0.559      -0.082
-SchoolRegion_2       -0.0640      0.059     -1.085      0.279      -0.180       0.052
-SchoolRegion_3       -0.0705      0.088     -0.798      0.425      -0.244       0.103
-EdTypeCode_1         -0.0439      0.080     -0.549      0.583      -0.201       0.113
-EdTypeCode_2          0.0467      0.112      0.416      0.677      -0.174       0.267
-SchoolType_1          0.1498      0.074      2.021      0.044       0.004       0.295
-SchoolType_2          0.1258      0.063      2.005      0.046       0.003       0.249
-SchoolType_4          0.1255      0.036      3.494      0.001       0.055       0.196
-MotherEd_1           -0.1231      0.070     -1.768      0.078      -0.260       0.014
-MotherEd_2           -0.1775      0.105     -1.697      0.090      -0.383       0.028
-MotherEd_3           -0.1828      0.071     -2.584      0.010      -0.322      -0.044
-MotherEd_4           -0.1876      0.088     -2.141      0.033      -0.360      -0.015
-MotherEd_5           -0.2663      0.104     -2.548      0.011      -0.472      -0.061
-MotherEd_6           -0.1266      0.078     -1.627      0.104      -0.279       0.026
-MotherEd_7           -0.1789      0.081     -2.216      0.027      -0.338      -0.020
-Campus_1              0.2287      0.124      1.851      0.065      -0.014       0.471
-PostulationType_1     0.1678      0.068      2.456      0.014       0.034       0.302
-==============================================================================
-Omnibus:                       37.584   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.835
-Skew:                           0.512   Prob(JB):                     2.76e-13
-Kurtosis:                       4.239   Cond. No.                     1.08e+03
+Ones                  0.2701      0.223      1.211      0.226      -0.168       0.708
+S1_DRP                0.0288      0.022      1.289      0.198      -0.015       0.073
+S1_BAD                0.0085      0.029      0.289      0.773      -0.049       0.066
+S1_CVL               -0.0021      0.006     -0.356      0.722      -0.014       0.010
+S1_GRD_1TO19          0.0522      0.037      1.428      0.154      -0.020       0.124
+S1_GRD_2TO29          0.0284      0.038      0.747      0.455      -0.046       0.103
+S1_GRD_3TO39          0.0164      0.036      0.453      0.651      -0.055       0.088
+S1_GRD_4TO49         -0.0419      0.038     -1.105      0.270      -0.116       0.033
+S1_GRD_5TO59         -0.0175      0.040     -0.435      0.664      -0.097       0.062
+S1_GRD_6TO7           0.0128      0.048      0.267      0.789      -0.081       0.107
+S1_BEST_GRD          -0.0016      0.003     -0.588      0.557      -0.007       0.004
+S2_DRP               -0.0057      0.011     -0.521      0.602      -0.027       0.016
+S2_BAD                0.0116      0.013      0.897      0.370      -0.014       0.037
+S2_CVL               -0.0216      0.019     -1.127      0.260      -0.059       0.016
+S2_GRD_1TO19         -0.0583      0.032     -1.814      0.070      -0.121       0.005
+S2_GRD_2TO29         -0.0089      0.023     -0.394      0.694      -0.053       0.036
+S2_GRD_3TO39         -0.0579      0.021     -2.760      0.006      -0.099      -0.017
+S2_GRD_4TO49         -0.0764      0.021     -3.580      0.000      -0.118      -0.034
+S2_GRD_5TO59         -0.0573      0.023     -2.511      0.012      -0.102      -0.012
+S2_GRD_6TO7          -0.0597      0.030     -1.979      0.048      -0.119      -0.000
+S2_BEST_GRD          -0.0011      0.003     -0.413      0.680      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.171      0.242      -0.011       0.003
+SchoolRegion_1        0.2550      0.133      1.912      0.057      -0.007       0.517
+SchoolRegion_2        0.3190      0.122      2.617      0.009       0.079       0.559
+SchoolRegion_3        0.2482      0.150      1.657      0.098      -0.046       0.542
+EdTypeCode_1          0.0898      0.084      1.074      0.283      -0.074       0.254
+EdTypeCode_2          0.0439      0.081      0.541      0.589      -0.115       0.203
+SchoolType_2         -0.1366      0.052     -2.614      0.009      -0.239      -0.034
+SchoolType_3         -0.0108      0.047     -0.231      0.818      -0.102       0.081
+SchoolType_4         -0.1248      0.212     -0.588      0.557      -0.542       0.292
+MotherEd_4            0.0596      0.036      1.650      0.100      -0.011       0.130
+MotherEd_5            0.0564      0.051      1.115      0.265      -0.043       0.156
+MotherEd_6           -0.0827      0.086     -0.963      0.336      -0.251       0.086
+MotherEd_7            0.1811      0.068      2.678      0.008       0.048       0.314
+Campus_1              0.2251      0.124      1.819      0.070      -0.018       0.468
+PostulationType_1     0.1561      0.080      1.949      0.052      -0.001       0.313
+==============================================================================
+Omnibus:                       36.873   Durbin-Watson:                   1.921
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.298
+Skew:                           0.507   Prob(JB):                     5.96e-13
+Kurtosis:                       4.220   Cond. No.                     1.58e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.08e+03. This might indicate that there are
+[2] The condition number is large, 1.58e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.465
-Method:                 Least Squares   F-statistic:                     14.73
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.23e-55
-Time:                        23:10:18   Log-Likelihood:                -155.15
-No. Observations:                 537   AIC:                             380.3
-Df Residuals:                     502   BIC:                             530.3
+Dep. Variable:               Desertor   R-squared:                       0.500
+Model:                            OLS   Adj. R-squared:                  0.466
+Method:                 Least Squares   F-statistic:                     14.74
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.14e-55
+Time:                        20:51:50   Log-Likelihood:                -155.06
+No. Observations:                 537   AIC:                             380.1
+Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7058      0.162      4.364      0.000       0.388       1.024
-S1_DRP                0.0229      0.015      1.530      0.127      -0.007       0.052
-S1_GRD_1TO19          0.0426      0.026      1.629      0.104      -0.009       0.094
-S1_GRD_2TO29          0.0178      0.024      0.746      0.456      -0.029       0.065
-S1_GRD_3TO39          0.0057      0.017      0.336      0.737      -0.028       0.039
-S1_GRD_4TO49         -0.0536      0.016     -3.277      0.001      -0.086      -0.021
-S1_GRD_5TO59         -0.0290      0.018     -1.593      0.112      -0.065       0.007
-S1_BEST_GRD          -0.0013      0.002     -0.586      0.558      -0.006       0.003
-S2_DRP               -0.0047      0.011     -0.441      0.660      -0.026       0.016
-S2_BAD                0.0137      0.012      1.162      0.246      -0.009       0.037
-S2_CVL               -0.0210      0.019     -1.099      0.272      -0.058       0.017
-S2_GRD_1TO19         -0.0560      0.032     -1.771      0.077      -0.118       0.006
-S2_GRD_3TO39         -0.0540      0.019     -2.866      0.004      -0.091      -0.017
-S2_GRD_4TO49         -0.0712      0.017     -4.081      0.000      -0.106      -0.037
-S2_GRD_5TO59         -0.0517      0.019     -2.725      0.007      -0.089      -0.014
-S2_GRD_6TO7          -0.0538      0.026     -2.060      0.040      -0.105      -0.002
-S2_BEST_GRD          -0.0014      0.002     -0.593      0.554      -0.006       0.003
-S2_VS_S1             -0.0041      0.003     -1.284      0.200      -0.010       0.002
-SchoolRegion_1       -0.3226      0.121     -2.663      0.008      -0.561      -0.085
-SchoolRegion_2       -0.0650      0.059     -1.104      0.270      -0.181       0.051
-SchoolRegion_3       -0.0690      0.088     -0.783      0.434      -0.242       0.104
-EdTypeCode_1         -0.0448      0.080     -0.561      0.575      -0.202       0.112
-EdTypeCode_2          0.0466      0.112      0.416      0.678      -0.174       0.267
-SchoolType_1          0.1488      0.074      2.010      0.045       0.003       0.294
-SchoolType_2          0.1236      0.062      1.980      0.048       0.001       0.246
-SchoolType_4          0.1254      0.036      3.495      0.001       0.055       0.196
-MotherEd_1           -0.1228      0.070     -1.765      0.078      -0.260       0.014
-MotherEd_2           -0.1787      0.104     -1.711      0.088      -0.384       0.027
-MotherEd_3           -0.1831      0.071     -2.590      0.010      -0.322      -0.044
-MotherEd_4           -0.1881      0.088     -2.150      0.032      -0.360      -0.016
-MotherEd_5           -0.2662      0.104     -2.550      0.011      -0.471      -0.061
-MotherEd_6           -0.1275      0.078     -1.641      0.101      -0.280       0.025
-MotherEd_7           -0.1793      0.081     -2.222      0.027      -0.338      -0.021
-Campus_1              0.2316      0.123      1.880      0.061      -0.010       0.474
-PostulationType_1     0.1688      0.068      2.474      0.014       0.035       0.303
-==============================================================================
-Omnibus:                       36.944   Durbin-Watson:                   1.918
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.734
-Skew:                           0.506   Prob(JB):                     4.79e-13
-Kurtosis:                       4.230   Cond. No.                     1.08e+03
+Ones                  0.2607      0.219      1.190      0.234      -0.170       0.691
+S1_DRP                0.0283      0.022      1.275      0.203      -0.015       0.072
+S1_BAD                0.0080      0.029      0.272      0.785      -0.050       0.065
+S1_CVL               -0.0021      0.006     -0.344      0.731      -0.014       0.010
+S1_GRD_1TO19          0.0515      0.036      1.415      0.158      -0.020       0.123
+S1_GRD_2TO29          0.0275      0.038      0.728      0.467      -0.047       0.102
+S1_GRD_3TO39          0.0157      0.036      0.436      0.663      -0.055       0.087
+S1_GRD_4TO49         -0.0428      0.038     -1.133      0.258      -0.117       0.031
+S1_GRD_5TO59         -0.0181      0.040     -0.450      0.653      -0.097       0.061
+S1_GRD_6TO7           0.0123      0.048      0.257      0.797      -0.082       0.106
+S1_BEST_GRD          -0.0016      0.003     -0.583      0.560      -0.007       0.004
+S2_DRP               -0.0058      0.011     -0.526      0.599      -0.027       0.016
+S2_BAD                0.0117      0.013      0.910      0.363      -0.014       0.037
+S2_CVL               -0.0214      0.019     -1.119      0.263      -0.059       0.016
+S2_GRD_1TO19         -0.0577      0.032     -1.803      0.072      -0.121       0.005
+S2_GRD_2TO29         -0.0084      0.023     -0.373      0.709      -0.053       0.036
+S2_GRD_3TO39         -0.0577      0.021     -2.754      0.006      -0.099      -0.017
+S2_GRD_4TO49         -0.0760      0.021     -3.577      0.000      -0.118      -0.034
+S2_GRD_5TO59         -0.0570      0.023     -2.506      0.013      -0.102      -0.012
+S2_GRD_6TO7          -0.0590      0.030     -1.968      0.050      -0.118    -9.7e-05
+S2_BEST_GRD          -0.0012      0.003     -0.433      0.665      -0.006       0.004
+S2_VS_S1             -0.0040      0.003     -1.168      0.243      -0.011       0.003
+SchoolRegion_1        0.2578      0.133      1.943      0.053      -0.003       0.519
+SchoolRegion_2        0.3217      0.121      2.653      0.008       0.083       0.560
+SchoolRegion_3        0.2512      0.149      1.685      0.093      -0.042       0.544
+EdTypeCode_1          0.0882      0.083      1.060      0.290      -0.075       0.252
+EdTypeCode_2          0.0443      0.081      0.546      0.585      -0.115       0.203
+SchoolType_2         -0.1276      0.035     -3.651      0.000      -0.196      -0.059
+SchoolType_4         -0.1147      0.208     -0.553      0.581      -0.522       0.293
+MotherEd_4            0.0599      0.036      1.661      0.097      -0.011       0.131
+MotherEd_5            0.0558      0.050      1.105      0.269      -0.043       0.155
+MotherEd_6           -0.0822      0.086     -0.958      0.339      -0.251       0.086
+MotherEd_7            0.1824      0.067      2.710      0.007       0.050       0.315
+Campus_1              0.2285      0.123      1.861      0.063      -0.013       0.470
+PostulationType_1     0.1573      0.080      1.970      0.049       0.000       0.314
+==============================================================================
+Omnibus:                       36.792   Durbin-Watson:                   1.922
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.139
+Skew:                           0.506   Prob(JB):                     6.45e-13
+Kurtosis:                       4.218   Cond. No.                     1.56e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.08e+03. This might indicate that there are
+[2] The condition number is large, 1.56e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.466
-Method:                 Least Squares   F-statistic:                     15.20
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.30e-56
-Time:                        23:10:18   Log-Likelihood:                -155.21
-No. Observations:                 537   AIC:                             378.4
-Df Residuals:                     503   BIC:                             524.1
+Model:                            OLS   Adj. R-squared:                  0.467
+Method:                 Least Squares   F-statistic:                     15.21
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.98e-56
+Time:                        20:51:50   Log-Likelihood:                -155.09
+No. Observations:                 537   AIC:                             378.2
+Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7152      0.159      4.493      0.000       0.402       1.028
-S1_DRP                0.0220      0.015      1.495      0.136      -0.007       0.051
-S1_GRD_1TO19          0.0403      0.025      1.598      0.111      -0.009       0.090
-S1_GRD_2TO29          0.0158      0.023      0.684      0.495      -0.030       0.061
-S1_GRD_4TO49         -0.0560      0.015     -3.811      0.000      -0.085      -0.027
-S1_GRD_5TO59         -0.0316      0.016     -1.928      0.054      -0.064       0.001
-S1_BEST_GRD          -0.0011      0.002     -0.518      0.605      -0.006       0.003
-S2_DRP               -0.0044      0.011     -0.418      0.676      -0.025       0.016
-S2_BAD                0.0136      0.012      1.152      0.250      -0.010       0.037
-S2_CVL               -0.0217      0.019     -1.143      0.253      -0.059       0.016
-S2_GRD_1TO19         -0.0552      0.032     -1.752      0.080      -0.117       0.007
-S2_GRD_3TO39         -0.0537      0.019     -2.855      0.004      -0.091      -0.017
-S2_GRD_4TO49         -0.0714      0.017     -4.098      0.000      -0.106      -0.037
-S2_GRD_5TO59         -0.0523      0.019     -2.773      0.006      -0.089      -0.015
-S2_GRD_6TO7          -0.0555      0.026     -2.165      0.031      -0.106      -0.005
-S2_BEST_GRD          -0.0014      0.002     -0.603      0.547      -0.006       0.003
-S2_VS_S1             -0.0040      0.003     -1.254      0.210      -0.010       0.002
-SchoolRegion_1       -0.3203      0.121     -2.650      0.008      -0.558      -0.083
-SchoolRegion_2       -0.0648      0.059     -1.100      0.272      -0.180       0.051
-SchoolRegion_3       -0.0701      0.088     -0.797      0.426      -0.243       0.103
-EdTypeCode_1         -0.0451      0.080     -0.565      0.572      -0.202       0.112
-EdTypeCode_2          0.0469      0.112      0.418      0.676      -0.173       0.267
-SchoolType_1          0.1485      0.074      2.009      0.045       0.003       0.294
-SchoolType_2          0.1236      0.062      1.982      0.048       0.001       0.246
-SchoolType_4          0.1260      0.036      3.517      0.000       0.056       0.196
-MotherEd_1           -0.1248      0.069     -1.802      0.072      -0.261       0.011
-MotherEd_2           -0.1805      0.104     -1.732      0.084      -0.385       0.024
-MotherEd_3           -0.1844      0.071     -2.615      0.009      -0.323      -0.046
-MotherEd_4           -0.1892      0.087     -2.165      0.031      -0.361      -0.017
-MotherEd_5           -0.2677      0.104     -2.569      0.011      -0.472      -0.063
-MotherEd_6           -0.1298      0.077     -1.679      0.094      -0.282       0.022
-MotherEd_7           -0.1812      0.080     -2.254      0.025      -0.339      -0.023
-Campus_1              0.2306      0.123      1.874      0.061      -0.011       0.472
-PostulationType_1     0.1680      0.068      2.466      0.014       0.034       0.302
-==============================================================================
-Omnibus:                       37.119   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.980
-Skew:                           0.508   Prob(JB):                     4.24e-13
-Kurtosis:                       4.231   Cond. No.                     1.06e+03
+Ones                  0.2805      0.205      1.369      0.172      -0.122       0.683
+S1_DRP                0.0259      0.020      1.292      0.197      -0.013       0.065
+S1_BAD                0.0032      0.022      0.141      0.888      -0.041       0.047
+S1_CVL               -0.0019      0.006     -0.313      0.754      -0.014       0.010
+S1_GRD_1TO19          0.0457      0.028      1.610      0.108      -0.010       0.101
+S1_GRD_2TO29          0.0204      0.026      0.795      0.427      -0.030       0.071
+S1_GRD_3TO39          0.0079      0.020      0.407      0.685      -0.030       0.046
+S1_GRD_4TO49         -0.0510      0.020     -2.603      0.010      -0.090      -0.013
+S1_GRD_5TO59         -0.0269      0.021     -1.307      0.192      -0.067       0.014
+S1_BEST_GRD          -0.0013      0.002     -0.524      0.600      -0.006       0.003
+S2_DRP               -0.0056      0.011     -0.510      0.610      -0.027       0.016
+S2_BAD                0.0124      0.013      0.979      0.328      -0.012       0.037
+S2_CVL               -0.0212      0.019     -1.114      0.266      -0.059       0.016
+S2_GRD_1TO19         -0.0577      0.032     -1.804      0.072      -0.120       0.005
+S2_GRD_2TO29         -0.0078      0.022     -0.348      0.728      -0.052       0.036
+S2_GRD_3TO39         -0.0570      0.021     -2.746      0.006      -0.098      -0.016
+S2_GRD_4TO49         -0.0747      0.021     -3.622      0.000      -0.115      -0.034
+S2_GRD_5TO59         -0.0552      0.022     -2.554      0.011      -0.098      -0.013
+S2_GRD_6TO7          -0.0567      0.029     -1.984      0.048      -0.113      -0.001
+S2_BEST_GRD          -0.0010      0.003     -0.390      0.697      -0.006       0.004
+S2_VS_S1             -0.0043      0.003     -1.324      0.186      -0.011       0.002
+SchoolRegion_1        0.2570      0.133      1.939      0.053      -0.003       0.517
+SchoolRegion_2        0.3207      0.121      2.649      0.008       0.083       0.559
+SchoolRegion_3        0.2499      0.149      1.679      0.094      -0.043       0.542
+EdTypeCode_1          0.0870      0.083      1.048      0.295      -0.076       0.250
+EdTypeCode_2          0.0434      0.081      0.536      0.592      -0.116       0.202
+SchoolType_2         -0.1272      0.035     -3.646      0.000      -0.196      -0.059
+SchoolType_4         -0.1148      0.207     -0.554      0.580      -0.522       0.293
+MotherEd_4            0.0593      0.036      1.649      0.100      -0.011       0.130
+MotherEd_5            0.0558      0.050      1.108      0.269      -0.043       0.155
+MotherEd_6           -0.0822      0.086     -0.959      0.338      -0.251       0.086
+MotherEd_7            0.1824      0.067      2.712      0.007       0.050       0.314
+Campus_1              0.2295      0.123      1.872      0.062      -0.011       0.470
+PostulationType_1     0.1569      0.080      1.967      0.050       0.000       0.314
+==============================================================================
+Omnibus:                       36.862   Durbin-Watson:                   1.920
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.504
+Skew:                           0.505   Prob(JB):                     5.37e-13
+Kurtosis:                       4.226   Cond. No.                     1.54e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.06e+03. This might indicate that there are
+[2] The condition number is large, 1.54e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.467
-Method:                 Least Squares   F-statistic:                     15.69
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           8.96e-57
-Time:                        23:10:18   Log-Likelihood:                -155.30
-No. Observations:                 537   AIC:                             376.6
-Df Residuals:                     504   BIC:                             518.0
+Model:                            OLS   Adj. R-squared:                  0.468
+Method:                 Least Squares   F-statistic:                     15.71
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.50e-57
+Time:                        20:51:50   Log-Likelihood:                -155.10
+No. Observations:                 537   AIC:                             376.2
+Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7121      0.159      4.482      0.000       0.400       1.024
-S1_DRP                0.0227      0.015      1.562      0.119      -0.006       0.051
-S1_GRD_1TO19          0.0394      0.025      1.568      0.117      -0.010       0.089
-S1_GRD_2TO29          0.0144      0.023      0.629      0.529      -0.031       0.059
-S1_GRD_4TO49         -0.0566      0.015     -3.873      0.000      -0.085      -0.028
-S1_GRD_5TO59         -0.0319      0.016     -1.949      0.052      -0.064       0.000
-S1_BEST_GRD          -0.0012      0.002     -0.547      0.585      -0.006       0.003
-S2_BAD                0.0150      0.011      1.321      0.187      -0.007       0.037
-S2_CVL               -0.0215      0.019     -1.137      0.256      -0.059       0.016
-S2_GRD_1TO19         -0.0530      0.031     -1.708      0.088      -0.114       0.008
-S2_GRD_3TO39         -0.0524      0.019     -2.827      0.005      -0.089      -0.016
-S2_GRD_4TO49         -0.0705      0.017     -4.080      0.000      -0.105      -0.037
-S2_GRD_5TO59         -0.0520      0.019     -2.761      0.006      -0.089      -0.015
-S2_GRD_6TO7          -0.0551      0.026     -2.154      0.032      -0.105      -0.005
-S2_BEST_GRD          -0.0014      0.002     -0.578      0.563      -0.006       0.003
-S2_VS_S1             -0.0039      0.003     -1.234      0.218      -0.010       0.002
-SchoolRegion_1       -0.3203      0.121     -2.652      0.008      -0.558      -0.083
-SchoolRegion_2       -0.0656      0.059     -1.115      0.265      -0.181       0.050
-SchoolRegion_3       -0.0704      0.088     -0.801      0.424      -0.243       0.102
-EdTypeCode_1         -0.0456      0.080     -0.572      0.568      -0.202       0.111
-EdTypeCode_2          0.0467      0.112      0.417      0.677      -0.173       0.267
-SchoolType_1          0.1489      0.074      2.016      0.044       0.004       0.294
-SchoolType_2          0.1239      0.062      1.989      0.047       0.002       0.246
-SchoolType_4          0.1255      0.036      3.508      0.000       0.055       0.196
-MotherEd_1           -0.1263      0.069     -1.828      0.068      -0.262       0.009
-MotherEd_2           -0.1803      0.104     -1.731      0.084      -0.385       0.024
-MotherEd_3           -0.1847      0.070     -2.622      0.009      -0.323      -0.046
-MotherEd_4           -0.1899      0.087     -2.176      0.030      -0.361      -0.018
-MotherEd_5           -0.2688      0.104     -2.582      0.010      -0.473      -0.064
-MotherEd_6           -0.1317      0.077     -1.707      0.088      -0.283       0.020
-MotherEd_7           -0.1820      0.080     -2.267      0.024      -0.340      -0.024
-Campus_1              0.2328      0.123      1.895      0.059      -0.009       0.474
-PostulationType_1     0.1676      0.068      2.462      0.014       0.034       0.301
-==============================================================================
-Omnibus:                       36.817   Durbin-Watson:                   1.918
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.727
-Skew:                           0.503   Prob(JB):                     4.81e-13
-Kurtosis:                       4.234   Cond. No.                     1.06e+03
+Ones                  0.2939      0.181      1.621      0.106      -0.062       0.650
+S1_DRP                0.0241      0.016      1.544      0.123      -0.007       0.055
+S1_CVL               -0.0017      0.006     -0.290      0.772      -0.013       0.010
+S1_GRD_1TO19          0.0441      0.026      1.687      0.092      -0.007       0.096
+S1_GRD_2TO29          0.0191      0.024      0.798      0.425      -0.028       0.066
+S1_GRD_3TO39          0.0067      0.017      0.386      0.700      -0.027       0.041
+S1_GRD_4TO49         -0.0524      0.017     -3.111      0.002      -0.086      -0.019
+S1_GRD_5TO59         -0.0283      0.018     -1.551      0.122      -0.064       0.008
+S1_BEST_GRD          -0.0014      0.002     -0.604      0.546      -0.006       0.003
+S2_DRP               -0.0055      0.011     -0.506      0.613      -0.027       0.016
+S2_BAD                0.0128      0.012      1.038      0.300      -0.011       0.037
+S2_CVL               -0.0212      0.019     -1.115      0.265      -0.059       0.016
+S2_GRD_1TO19         -0.0578      0.032     -1.810      0.071      -0.120       0.005
+S2_GRD_2TO29         -0.0077      0.022     -0.346      0.730      -0.052       0.036
+S2_GRD_3TO39         -0.0569      0.021     -2.745      0.006      -0.098      -0.016
+S2_GRD_4TO49         -0.0747      0.021     -3.625      0.000      -0.115      -0.034
+S2_GRD_5TO59         -0.0553      0.022     -2.559      0.011      -0.098      -0.013
+S2_GRD_6TO7          -0.0570      0.028     -2.005      0.045      -0.113      -0.001
+S2_BEST_GRD          -0.0010      0.003     -0.386      0.700      -0.006       0.004
+S2_VS_S1             -0.0043      0.003     -1.330      0.184      -0.011       0.002
+SchoolRegion_1        0.2568      0.132      1.939      0.053      -0.003       0.517
+SchoolRegion_2        0.3200      0.121      2.648      0.008       0.083       0.557
+SchoolRegion_3        0.2496      0.149      1.678      0.094      -0.043       0.542
+EdTypeCode_1          0.0875      0.083      1.055      0.292      -0.075       0.250
+EdTypeCode_2          0.0439      0.081      0.544      0.586      -0.115       0.203
+SchoolType_2         -0.1273      0.035     -3.654      0.000      -0.196      -0.059
+SchoolType_4         -0.1149      0.207     -0.555      0.579      -0.522       0.292
+MotherEd_4            0.0594      0.036      1.655      0.099      -0.011       0.130
+MotherEd_5            0.0558      0.050      1.108      0.268      -0.043       0.155
+MotherEd_6           -0.0820      0.086     -0.958      0.338      -0.250       0.086
+MotherEd_7            0.1825      0.067      2.717      0.007       0.051       0.314
+Campus_1              0.2297      0.122      1.876      0.061      -0.011       0.470
+PostulationType_1     0.1568      0.080      1.969      0.050       0.000       0.313
+==============================================================================
+Omnibus:                       36.743   Durbin-Watson:                   1.920
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.436
+Skew:                           0.503   Prob(JB):                     5.56e-13
+Kurtosis:                       4.228   Cond. No.                     1.51e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.06e+03. This might indicate that there are
+[2] The condition number is large, 1.51e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.468
-Method:                 Least Squares   F-statistic:                     16.22
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.39e-57
-Time:                        23:10:18   Log-Likelihood:                -155.40
-No. Observations:                 537   AIC:                             374.8
-Df Residuals:                     505   BIC:                             511.9
+Model:                            OLS   Adj. R-squared:                  0.469
+Method:                 Least Squares   F-statistic:                     16.25
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.91e-57
+Time:                        20:51:50   Log-Likelihood:                -155.15
+No. Observations:                 537   AIC:                             374.3
+Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7347      0.149      4.921      0.000       0.441       1.028
-S1_DRP                0.0228      0.015      1.565      0.118      -0.006       0.051
-S1_GRD_1TO19          0.0385      0.025      1.539      0.124      -0.011       0.088
-S1_GRD_2TO29          0.0144      0.023      0.632      0.527      -0.030       0.059
-S1_GRD_4TO49         -0.0566      0.015     -3.876      0.000      -0.085      -0.028
-S1_GRD_5TO59         -0.0316      0.016     -1.932      0.054      -0.064       0.001
-S1_BEST_GRD          -0.0011      0.002     -0.510      0.610      -0.005       0.003
-S2_BAD                0.0150      0.011      1.322      0.187      -0.007       0.037
-S2_CVL               -0.0213      0.019     -1.125      0.261      -0.058       0.016
-S2_GRD_1TO19         -0.0534      0.031     -1.722      0.086      -0.114       0.008
-S2_GRD_3TO39         -0.0520      0.019     -2.810      0.005      -0.088      -0.016
-S2_GRD_4TO49         -0.0706      0.017     -4.087      0.000      -0.105      -0.037
-S2_GRD_5TO59         -0.0525      0.019     -2.795      0.005      -0.089      -0.016
-S2_GRD_6TO7          -0.0546      0.026     -2.139      0.033      -0.105      -0.004
-S2_BEST_GRD          -0.0014      0.002     -0.616      0.538      -0.006       0.003
-S2_VS_S1             -0.0037      0.003     -1.190      0.235      -0.010       0.002
-SchoolRegion_1       -0.3211      0.121     -2.661      0.008      -0.558      -0.084
-SchoolRegion_2       -0.0671      0.059     -1.145      0.253      -0.182       0.048
-SchoolRegion_3       -0.0710      0.088     -0.808      0.419      -0.243       0.102
-EdTypeCode_1         -0.0688      0.057     -1.205      0.229      -0.181       0.043
-SchoolType_1          0.1493      0.074      2.023      0.044       0.004       0.294
-SchoolType_2          0.1224      0.062      1.970      0.049       0.000       0.244
-SchoolType_4          0.1262      0.036      3.534      0.000       0.056       0.196
-MotherEd_1           -0.1258      0.069     -1.822      0.069      -0.261       0.010
-MotherEd_2           -0.1781      0.104     -1.714      0.087      -0.382       0.026
-MotherEd_3           -0.1831      0.070     -2.605      0.009      -0.321      -0.045
-MotherEd_4           -0.1900      0.087     -2.179      0.030      -0.361      -0.019
-MotherEd_5           -0.2679      0.104     -2.576      0.010      -0.472      -0.064
-MotherEd_6           -0.1310      0.077     -1.701      0.090      -0.282       0.020
-MotherEd_7           -0.1810      0.080     -2.257      0.024      -0.339      -0.023
-Campus_1              0.2301      0.123      1.877      0.061      -0.011       0.471
-PostulationType_1     0.1686      0.068      2.481      0.013       0.035       0.302
-==============================================================================
-Omnibus:                       37.307   Durbin-Watson:                   1.917
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.638
-Skew:                           0.508   Prob(JB):                     3.05e-13
-Kurtosis:                       4.243   Cond. No.                     1.04e+03
+Ones                  0.2837      0.178      1.596      0.111      -0.065       0.633
+S1_DRP                0.0227      0.015      1.528      0.127      -0.006       0.052
+S1_GRD_1TO19          0.0437      0.026      1.674      0.095      -0.008       0.095
+S1_GRD_2TO29          0.0190      0.024      0.793      0.428      -0.028       0.066
+S1_GRD_3TO39          0.0067      0.017      0.386      0.699      -0.027       0.041
+S1_GRD_4TO49         -0.0523      0.017     -3.109      0.002      -0.085      -0.019
+S1_GRD_5TO59         -0.0285      0.018     -1.569      0.117      -0.064       0.007
+S1_BEST_GRD          -0.0014      0.002     -0.623      0.533      -0.006       0.003
+S2_DRP               -0.0057      0.011     -0.520      0.603      -0.027       0.016
+S2_BAD                0.0124      0.012      1.013      0.312      -0.012       0.036
+S2_CVL               -0.0213      0.019     -1.118      0.264      -0.059       0.016
+S2_GRD_1TO19         -0.0579      0.032     -1.816      0.070      -0.121       0.005
+S2_GRD_2TO29         -0.0080      0.022     -0.360      0.719      -0.052       0.036
+S2_GRD_3TO39         -0.0574      0.021     -2.779      0.006      -0.098      -0.017
+S2_GRD_4TO49         -0.0750      0.021     -3.650      0.000      -0.115      -0.035
+S2_GRD_5TO59         -0.0558      0.021     -2.597      0.010      -0.098      -0.014
+S2_GRD_6TO7          -0.0581      0.028     -2.067      0.039      -0.113      -0.003
+S2_BEST_GRD          -0.0010      0.003     -0.383      0.702      -0.006       0.004
+S2_VS_S1             -0.0043      0.003     -1.329      0.185      -0.011       0.002
+SchoolRegion_1        0.2602      0.132      1.974      0.049       0.001       0.519
+SchoolRegion_2        0.3227      0.120      2.681      0.008       0.086       0.559
+SchoolRegion_3        0.2540      0.148      1.719      0.086      -0.036       0.544
+EdTypeCode_1          0.0881      0.083      1.064      0.288      -0.075       0.251
+EdTypeCode_2          0.0415      0.080      0.518      0.605      -0.116       0.199
+SchoolType_2         -0.1272      0.035     -3.655      0.000      -0.196      -0.059
+SchoolType_4         -0.1149      0.207     -0.555      0.579      -0.521       0.292
+MotherEd_4            0.0592      0.036      1.652      0.099      -0.011       0.130
+MotherEd_5            0.0555      0.050      1.103      0.271      -0.043       0.154
+MotherEd_6           -0.0822      0.086     -0.961      0.337      -0.250       0.086
+MotherEd_7            0.1828      0.067      2.724      0.007       0.051       0.315
+Campus_1              0.2312      0.122      1.891      0.059      -0.009       0.471
+PostulationType_1     0.1689      0.068      2.483      0.013       0.035       0.302
+==============================================================================
+Omnibus:                       37.180   Durbin-Watson:                   1.920
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.253
+Skew:                           0.507   Prob(JB):                     3.70e-13
+Kurtosis:                       4.236   Cond. No.                     1.49e+03
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.04e+03. This might indicate that there are
+[2] The condition number is large, 1.49e+03. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.499
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     16.77
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.52e-58
-Time:                        23:10:18   Log-Likelihood:                -155.53
-No. Observations:                 537   AIC:                             373.1
-Df Residuals:                     506   BIC:                             505.9
+Model:                            OLS   Adj. R-squared:                  0.470
+Method:                 Least Squares   F-statistic:                     16.81
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.91e-58
+Time:                        20:51:50   Log-Likelihood:                -155.22
+No. Observations:                 537   AIC:                             372.4
+Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7275      0.149      4.898      0.000       0.436       1.019
-S1_DRP                0.0241      0.014      1.691      0.091      -0.004       0.052
-S1_GRD_1TO19          0.0390      0.025      1.565      0.118      -0.010       0.088
-S1_GRD_2TO29          0.0089      0.020      0.444      0.657      -0.031       0.048
-S1_GRD_4TO49         -0.0559      0.015     -3.847      0.000      -0.084      -0.027
-S1_GRD_5TO59         -0.0292      0.016     -1.866      0.063      -0.060       0.002
-S2_BAD                0.0141      0.011      1.263      0.207      -0.008       0.036
-S2_CVL               -0.0214      0.019     -1.131      0.259      -0.058       0.016
-S2_GRD_1TO19         -0.0525      0.031     -1.698      0.090      -0.113       0.008
-S2_GRD_3TO39         -0.0527      0.018     -2.854      0.004      -0.089      -0.016
-S2_GRD_4TO49         -0.0732      0.016     -4.442      0.000      -0.106      -0.041
-S2_GRD_5TO59         -0.0561      0.017     -3.229      0.001      -0.090      -0.022
-S2_GRD_6TO7          -0.0558      0.025     -2.194      0.029      -0.106      -0.006
-S2_BEST_GRD          -0.0022      0.002     -1.250      0.212      -0.006       0.001
-S2_VS_S1             -0.0025      0.002     -1.257      0.209      -0.006       0.001
-SchoolRegion_1       -0.3202      0.121     -2.656      0.008      -0.557      -0.083
-SchoolRegion_2       -0.0679      0.059     -1.160      0.247      -0.183       0.047
-SchoolRegion_3       -0.0762      0.087     -0.875      0.382      -0.247       0.095
-EdTypeCode_1         -0.0701      0.057     -1.230      0.219      -0.182       0.042
-SchoolType_1          0.1472      0.074      2.000      0.046       0.003       0.292
-SchoolType_2          0.1216      0.062      1.959      0.051      -0.000       0.244
-SchoolType_4          0.1247      0.036      3.507      0.000       0.055       0.195
-MotherEd_1           -0.1267      0.069     -1.837      0.067      -0.262       0.009
-MotherEd_2           -0.1714      0.103     -1.664      0.097      -0.374       0.031
-MotherEd_3           -0.1823      0.070     -2.596      0.010      -0.320      -0.044
-MotherEd_4           -0.1876      0.087     -2.156      0.032      -0.359      -0.017
-MotherEd_5           -0.2666      0.104     -2.566      0.011      -0.471      -0.062
-MotherEd_6           -0.1305      0.077     -1.696      0.091      -0.282       0.021
-MotherEd_7           -0.1796      0.080     -2.243      0.025      -0.337      -0.022
-Campus_1              0.2238      0.122      1.837      0.067      -0.016       0.463
-PostulationType_1     0.1684      0.068      2.480      0.013       0.035       0.302
-==============================================================================
-Omnibus:                       36.908   Durbin-Watson:                   1.916
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.843
-Skew:                           0.504   Prob(JB):                     4.54e-13
-Kurtosis:                       4.234   Cond. No.                         702.
+Ones                  0.2793      0.177      1.577      0.116      -0.069       0.627
+S1_DRP                0.0229      0.015      1.544      0.123      -0.006       0.052
+S1_GRD_1TO19          0.0427      0.026      1.647      0.100      -0.008       0.094
+S1_GRD_2TO29          0.0175      0.024      0.744      0.457      -0.029       0.064
+S1_GRD_3TO39          0.0055      0.017      0.325      0.746      -0.028       0.039
+S1_GRD_4TO49         -0.0539      0.016     -3.315      0.001      -0.086      -0.022
+S1_GRD_5TO59         -0.0289      0.018     -1.593      0.112      -0.065       0.007
+S1_BEST_GRD          -0.0013      0.002     -0.586      0.558      -0.006       0.003
+S2_DRP               -0.0048      0.011     -0.451      0.652      -0.026       0.016
+S2_BAD                0.0136      0.012      1.158      0.248      -0.009       0.037
+S2_CVL               -0.0209      0.019     -1.098      0.273      -0.058       0.016
+S2_GRD_1TO19         -0.0558      0.031     -1.782      0.075      -0.117       0.006
+S2_GRD_3TO39         -0.0543      0.019     -2.898      0.004      -0.091      -0.017
+S2_GRD_4TO49         -0.0711      0.017     -4.093      0.000      -0.105      -0.037
+S2_GRD_5TO59         -0.0521      0.019     -2.768      0.006      -0.089      -0.015
+S2_GRD_6TO7          -0.0542      0.026     -2.095      0.037      -0.105      -0.003
+S2_BEST_GRD          -0.0014      0.002     -0.597      0.551      -0.006       0.003
+S2_VS_S1             -0.0041      0.003     -1.294      0.196      -0.010       0.002
+SchoolRegion_1        0.2608      0.132      1.981      0.048       0.002       0.519
+SchoolRegion_2        0.3243      0.120      2.698      0.007       0.088       0.560
+SchoolRegion_3        0.2573      0.147      1.746      0.081      -0.032       0.547
+EdTypeCode_1          0.0896      0.083      1.084      0.279      -0.073       0.252
+EdTypeCode_2          0.0425      0.080      0.531      0.596      -0.115       0.200
+SchoolType_2         -0.1267      0.035     -3.646      0.000      -0.195      -0.058
+SchoolType_4         -0.1197      0.206     -0.580      0.562      -0.525       0.286
+MotherEd_4            0.0599      0.036      1.675      0.095      -0.010       0.130
+MotherEd_5            0.0550      0.050      1.095      0.274      -0.044       0.154
+MotherEd_6           -0.0817      0.085     -0.957      0.339      -0.250       0.086
+MotherEd_7            0.1829      0.067      2.729      0.007       0.051       0.315
+Campus_1              0.2335      0.122      1.914      0.056      -0.006       0.473
+PostulationType_1     0.1698      0.068      2.501      0.013       0.036       0.303
+==============================================================================
+Omnibus:                       36.564   Durbin-Watson:                   1.918
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.202
+Skew:                           0.501   Prob(JB):                     6.25e-13
+Kurtosis:                       4.228   Cond. No.                     1.49e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 1.49e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.498
+Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     17.37
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.70e-58
-Time:                        23:10:18   Log-Likelihood:                -155.64
-No. Observations:                 537   AIC:                             371.3
-Df Residuals:                     507   BIC:                             499.9
+Method:                 Least Squares   F-statistic:                     17.42
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-58
+Time:                        20:51:50   Log-Likelihood:                -155.27
+No. Observations:                 537   AIC:                             370.5
+Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7408      0.145      5.096      0.000       0.455       1.026
-S1_DRP                0.0223      0.014      1.634      0.103      -0.005       0.049
-S1_GRD_1TO19          0.0382      0.025      1.537      0.125      -0.011       0.087
-S1_GRD_4TO49         -0.0583      0.013     -4.337      0.000      -0.085      -0.032
-S1_GRD_5TO59         -0.0311      0.015     -2.070      0.039      -0.061      -0.002
-S2_BAD                0.0138      0.011      1.240      0.216      -0.008       0.036
-S2_CVL               -0.0215      0.019     -1.138      0.256      -0.059       0.016
-S2_GRD_1TO19         -0.0514      0.031     -1.667      0.096      -0.112       0.009
-S2_GRD_3TO39         -0.0525      0.018     -2.849      0.005      -0.089      -0.016
-S2_GRD_4TO49         -0.0736      0.016     -4.476      0.000      -0.106      -0.041
-S2_GRD_5TO59         -0.0572      0.017     -3.321      0.001      -0.091      -0.023
-S2_GRD_6TO7          -0.0571      0.025     -2.262      0.024      -0.107      -0.008
-S2_BEST_GRD          -0.0022      0.002     -1.250      0.212      -0.006       0.001
-S2_VS_S1             -0.0025      0.002     -1.248      0.213      -0.006       0.001
-SchoolRegion_1       -0.3164      0.120     -2.633      0.009      -0.552      -0.080
-SchoolRegion_2       -0.0665      0.058     -1.138      0.256      -0.181       0.048
-SchoolRegion_3       -0.0721      0.087     -0.833      0.405      -0.242       0.098
-EdTypeCode_1         -0.0715      0.057     -1.257      0.209      -0.183       0.040
-SchoolType_1          0.1468      0.074      1.996      0.046       0.002       0.291
-SchoolType_2          0.1210      0.062      1.951      0.052      -0.001       0.243
-SchoolType_4          0.1258      0.035      3.550      0.000       0.056       0.195
-MotherEd_1           -0.1251      0.069     -1.818      0.070      -0.260       0.010
-MotherEd_2           -0.1679      0.103     -1.636      0.102      -0.370       0.034
-MotherEd_3           -0.1821      0.070     -2.595      0.010      -0.320      -0.044
-MotherEd_4           -0.1857      0.087     -2.138      0.033      -0.356      -0.015
-MotherEd_5           -0.2690      0.104     -2.595      0.010      -0.473      -0.065
-MotherEd_6           -0.1303      0.077     -1.694      0.091      -0.281       0.021
-MotherEd_7           -0.1786      0.080     -2.232      0.026      -0.336      -0.021
-Campus_1              0.2237      0.122      1.837      0.067      -0.016       0.463
-PostulationType_1     0.1678      0.068      2.473      0.014       0.035       0.301
-==============================================================================
-Omnibus:                       37.321   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.324
-Skew:                           0.510   Prob(JB):                     3.57e-13
-Kurtosis:                       4.234   Cond. No.                         700.
+Ones                  0.2894      0.174      1.661      0.097      -0.053       0.632
+S1_DRP                0.0221      0.015      1.511      0.131      -0.007       0.051
+S1_GRD_1TO19          0.0405      0.025      1.620      0.106      -0.009       0.090
+S1_GRD_2TO29          0.0156      0.023      0.685      0.494      -0.029       0.060
+S1_GRD_4TO49         -0.0562      0.015     -3.840      0.000      -0.085      -0.027
+S1_GRD_5TO59         -0.0315      0.016     -1.924      0.055      -0.064       0.001
+S1_BEST_GRD          -0.0011      0.002     -0.521      0.603      -0.005       0.003
+S2_DRP               -0.0045      0.011     -0.429      0.668      -0.025       0.016
+S2_BAD                0.0135      0.012      1.148      0.252      -0.010       0.037
+S2_CVL               -0.0215      0.019     -1.142      0.254      -0.059       0.016
+S2_GRD_1TO19         -0.0551      0.031     -1.764      0.078      -0.116       0.006
+S2_GRD_3TO39         -0.0540      0.019     -2.887      0.004      -0.091      -0.017
+S2_GRD_4TO49         -0.0712      0.017     -4.110      0.000      -0.105      -0.037
+S2_GRD_5TO59         -0.0527      0.019     -2.814      0.005      -0.089      -0.016
+S2_GRD_6TO7          -0.0558      0.025     -2.200      0.028      -0.106      -0.006
+S2_BEST_GRD          -0.0014      0.002     -0.607      0.544      -0.006       0.003
+S2_VS_S1             -0.0040      0.003     -1.266      0.206      -0.010       0.002
+SchoolRegion_1        0.2587      0.131      1.969      0.049       0.001       0.517
+SchoolRegion_2        0.3220      0.120      2.686      0.007       0.086       0.557
+SchoolRegion_3        0.2539      0.147      1.729      0.084      -0.035       0.542
+EdTypeCode_1          0.0902      0.083      1.093      0.275      -0.072       0.252
+EdTypeCode_2          0.0428      0.080      0.535      0.593      -0.114       0.200
+SchoolType_2         -0.1272      0.035     -3.667      0.000      -0.195      -0.059
+SchoolType_4         -0.1199      0.206     -0.582      0.561      -0.525       0.285
+MotherEd_4            0.0594      0.036      1.663      0.097      -0.011       0.130
+MotherEd_5            0.0542      0.050      1.081      0.280      -0.044       0.153
+MotherEd_6           -0.0818      0.085     -0.959      0.338      -0.250       0.086
+MotherEd_7            0.1843      0.067      2.756      0.006       0.053       0.316
+Campus_1              0.2323      0.122      1.907      0.057      -0.007       0.472
+PostulationType_1     0.1690      0.068      2.493      0.013       0.036       0.302
+==============================================================================
+Omnibus:                       36.729   Durbin-Watson:                   1.919
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.443
+Skew:                           0.503   Prob(JB):                     5.54e-13
+Kurtosis:                       4.229   Cond. No.                     1.48e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 1.48e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.498
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     17.98
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.49e-59
-Time:                        23:10:18   Log-Likelihood:                -156.01
-No. Observations:                 537   AIC:                             370.0
-Df Residuals:                     508   BIC:                             494.3
+Dep. Variable:               Desertor   R-squared:                       0.499
+Model:                            OLS   Adj. R-squared:                  0.471
+Method:                 Least Squares   F-statistic:                     18.07
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.10e-59
+Time:                        20:51:50   Log-Likelihood:                -155.37
+No. Observations:                 537   AIC:                             368.7
+Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7109      0.141      5.048      0.000       0.434       0.988
-S1_DRP                0.0227      0.014      1.664      0.097      -0.004       0.049
-S1_GRD_1TO19          0.0364      0.025      1.471      0.142      -0.012       0.085
-S1_GRD_4TO49         -0.0591      0.013     -4.412      0.000      -0.085      -0.033
-S1_GRD_5TO59         -0.0316      0.015     -2.099      0.036      -0.061      -0.002
-S2_BAD                0.0131      0.011      1.176      0.240      -0.009       0.035
-S2_CVL               -0.0208      0.019     -1.105      0.270      -0.058       0.016
-S2_GRD_1TO19         -0.0488      0.031     -1.593      0.112      -0.109       0.011
-S2_GRD_3TO39         -0.0534      0.018     -2.900      0.004      -0.090      -0.017
-S2_GRD_4TO49         -0.0738      0.016     -4.488      0.000      -0.106      -0.041
-S2_GRD_5TO59         -0.0574      0.017     -3.338      0.001      -0.091      -0.024
-S2_GRD_6TO7          -0.0575      0.025     -2.280      0.023      -0.107      -0.008
-S2_BEST_GRD          -0.0022      0.002     -1.231      0.219      -0.006       0.001
-S2_VS_S1             -0.0025      0.002     -1.252      0.211      -0.006       0.001
-SchoolRegion_1       -0.3151      0.120     -2.624      0.009      -0.551      -0.079
-SchoolRegion_2       -0.0361      0.046     -0.792      0.429      -0.126       0.054
-EdTypeCode_1         -0.0703      0.057     -1.236      0.217      -0.182       0.041
-SchoolType_1          0.1446      0.073      1.968      0.050       0.000       0.289
-SchoolType_2          0.1251      0.062      2.024      0.043       0.004       0.246
-SchoolType_4          0.1276      0.035      3.608      0.000       0.058       0.197
-MotherEd_1           -0.1272      0.069     -1.849      0.065      -0.262       0.008
-MotherEd_2           -0.1676      0.103     -1.633      0.103      -0.369       0.034
-MotherEd_3           -0.1813      0.070     -2.585      0.010      -0.319      -0.044
-MotherEd_4           -0.1872      0.087     -2.156      0.032      -0.358      -0.017
-MotherEd_5           -0.2695      0.104     -2.600      0.010      -0.473      -0.066
-MotherEd_6           -0.1316      0.077     -1.712      0.088      -0.283       0.019
-MotherEd_7           -0.1790      0.080     -2.239      0.026      -0.336      -0.022
-Campus_1              0.2516      0.117      2.150      0.032       0.022       0.481
-PostulationType_1     0.1677      0.068      2.473      0.014       0.034       0.301
-==============================================================================
-Omnibus:                       36.024   Durbin-Watson:                   1.917
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.539
-Skew:                           0.494   Prob(JB):                     8.71e-13
-Kurtosis:                       4.227   Cond. No.                         693.
+Ones                  0.2848      0.174      1.639      0.102      -0.057       0.626
+S1_DRP                0.0228      0.014      1.578      0.115      -0.006       0.051
+S1_GRD_1TO19          0.0396      0.025      1.590      0.112      -0.009       0.089
+S1_GRD_2TO29          0.0141      0.022      0.627      0.531      -0.030       0.058
+S1_GRD_4TO49         -0.0569      0.015     -3.913      0.000      -0.085      -0.028
+S1_GRD_5TO59         -0.0318      0.016     -1.947      0.052      -0.064       0.000
+S1_BEST_GRD          -0.0012      0.002     -0.549      0.584      -0.005       0.003
+S2_BAD                0.0148      0.011      1.318      0.188      -0.007       0.037
+S2_CVL               -0.0214      0.019     -1.136      0.256      -0.058       0.016
+S2_GRD_1TO19         -0.0528      0.031     -1.717      0.087      -0.113       0.008
+S2_GRD_3TO39         -0.0527      0.018     -2.858      0.004      -0.089      -0.016
+S2_GRD_4TO49         -0.0703      0.017     -4.091      0.000      -0.104      -0.037
+S2_GRD_5TO59         -0.0524      0.019     -2.803      0.005      -0.089      -0.016
+S2_GRD_6TO7          -0.0554      0.025     -2.188      0.029      -0.105      -0.006
+S2_BEST_GRD          -0.0014      0.002     -0.582      0.561      -0.006       0.003
+S2_VS_S1             -0.0039      0.003     -1.243      0.215      -0.010       0.002
+SchoolRegion_1        0.2578      0.131      1.964      0.050   -4.68e-05       0.516
+SchoolRegion_2        0.3219      0.120      2.688      0.007       0.087       0.557
+SchoolRegion_3        0.2538      0.147      1.730      0.084      -0.034       0.542
+EdTypeCode_1          0.0915      0.082      1.111      0.267      -0.070       0.253
+EdTypeCode_2          0.0439      0.080      0.550      0.583      -0.113       0.201
+SchoolType_2         -0.1266      0.035     -3.657      0.000      -0.195      -0.059
+SchoolType_4         -0.1292      0.205     -0.631      0.529      -0.532       0.273
+MotherEd_4            0.0583      0.036      1.638      0.102      -0.012       0.128
+MotherEd_5            0.0527      0.050      1.054      0.292      -0.045       0.151
+MotherEd_6           -0.0825      0.085     -0.968      0.334      -0.250       0.085
+MotherEd_7            0.1848      0.067      2.767      0.006       0.054       0.316
+Campus_1              0.2346      0.122      1.929      0.054      -0.004       0.474
+PostulationType_1     0.1687      0.068      2.491      0.013       0.036       0.302
+==============================================================================
+Omnibus:                       36.440   Durbin-Watson:                   1.918
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.197
+Skew:                           0.499   Prob(JB):                     6.26e-13
+Kurtosis:                       4.232   Cond. No.                     1.48e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large, 1.48e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.497
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     18.64
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.69e-59
-Time:                        23:10:18   Log-Likelihood:                -156.34
-No. Observations:                 537   AIC:                             368.7
-Df Residuals:                     509   BIC:                             488.7
+Dep. Variable:               Desertor   R-squared:                       0.499
+Model:                            OLS   Adj. R-squared:                  0.472
+Method:                 Least Squares   F-statistic:                     18.75
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.16e-60
+Time:                        20:51:50   Log-Likelihood:                -155.53
+No. Observations:                 537   AIC:                             367.1
+Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6796      0.135      5.030      0.000       0.414       0.945
-S1_DRP                0.0232      0.014      1.700      0.090      -0.004       0.050
-S1_GRD_1TO19          0.0377      0.025      1.529      0.127      -0.011       0.086
-S1_GRD_4TO49         -0.0592      0.013     -4.418      0.000      -0.085      -0.033
-S1_GRD_5TO59         -0.0317      0.015     -2.110      0.035      -0.061      -0.002
-S2_BAD                0.0126      0.011      1.131      0.259      -0.009       0.034
-S2_CVL               -0.0213      0.019     -1.128      0.260      -0.058       0.016
-S2_GRD_1TO19         -0.0488      0.031     -1.592      0.112      -0.109       0.011
-S2_GRD_3TO39         -0.0545      0.018     -2.971      0.003      -0.091      -0.018
-S2_GRD_4TO49         -0.0751      0.016     -4.595      0.000      -0.107      -0.043
-S2_GRD_5TO59         -0.0571      0.017     -3.322      0.001      -0.091      -0.023
-S2_GRD_6TO7          -0.0585      0.025     -2.325      0.020      -0.108      -0.009
-S2_BEST_GRD          -0.0021      0.002     -1.207      0.228      -0.006       0.001
-S2_VS_S1             -0.0025      0.002     -1.265      0.207      -0.006       0.001
-SchoolRegion_1       -0.3122      0.120     -2.601      0.010      -0.548      -0.076
-EdTypeCode_1         -0.0670      0.057     -1.182      0.238      -0.178       0.044
-SchoolType_1          0.1414      0.073      1.927      0.055      -0.003       0.285
-SchoolType_2          0.1237      0.062      2.003      0.046       0.002       0.245
-SchoolType_4          0.1260      0.035      3.569      0.000       0.057       0.195
-MotherEd_1           -0.1274      0.069     -1.854      0.064      -0.262       0.008
-MotherEd_2           -0.1676      0.103     -1.634      0.103      -0.369       0.034
-MotherEd_3           -0.1797      0.070     -2.565      0.011      -0.317      -0.042
-MotherEd_4           -0.1881      0.087     -2.167      0.031      -0.359      -0.018
-MotherEd_5           -0.2678      0.104     -2.585      0.010      -0.471      -0.064
-MotherEd_6           -0.1316      0.077     -1.713      0.087      -0.283       0.019
-MotherEd_7           -0.1815      0.080     -2.273      0.023      -0.338      -0.025
-Campus_1              0.2790      0.112      2.497      0.013       0.059       0.499
-PostulationType_1     0.1670      0.068      2.463      0.014       0.034       0.300
-==============================================================================
-Omnibus:                       36.189   Durbin-Watson:                   1.914
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.401
-Skew:                           0.498   Prob(JB):                     9.33e-13
-Kurtosis:                       4.218   Cond. No.                         688.
+Ones                  0.2778      0.173      1.605      0.109      -0.062       0.618
+S1_DRP                0.0243      0.014      1.712      0.088      -0.004       0.052
+S1_GRD_1TO19          0.0400      0.025      1.608      0.109      -0.009       0.089
+S1_GRD_2TO29          0.0084      0.020      0.422      0.673      -0.031       0.048
+S1_GRD_4TO49         -0.0561      0.014     -3.881      0.000      -0.085      -0.028
+S1_GRD_5TO59         -0.0292      0.016     -1.869      0.062      -0.060       0.001
+S2_BAD                0.0139      0.011      1.252      0.211      -0.008       0.036
+S2_CVL               -0.0214      0.019     -1.138      0.256      -0.058       0.016
+S2_GRD_1TO19         -0.0517      0.031     -1.687      0.092      -0.112       0.009
+S2_GRD_3TO39         -0.0533      0.018     -2.897      0.004      -0.089      -0.017
+S2_GRD_4TO49         -0.0731      0.016     -4.451      0.000      -0.105      -0.041
+S2_GRD_5TO59         -0.0563      0.017     -3.252      0.001      -0.090      -0.022
+S2_GRD_6TO7          -0.0565      0.025     -2.243      0.025      -0.106      -0.007
+S2_BEST_GRD          -0.0022      0.002     -1.252      0.211      -0.006       0.001
+S2_VS_S1             -0.0026      0.002     -1.301      0.194      -0.006       0.001
+SchoolRegion_1        0.2555      0.131      1.949      0.052      -0.002       0.513
+SchoolRegion_2        0.3206      0.120      2.679      0.008       0.086       0.556
+SchoolRegion_3        0.2470      0.146      1.690      0.092      -0.040       0.534
+EdTypeCode_1          0.0909      0.082      1.104      0.270      -0.071       0.253
+EdTypeCode_2          0.0489      0.079      0.616      0.538      -0.107       0.205
+SchoolType_2         -0.1252      0.035     -3.628      0.000      -0.193      -0.057
+SchoolType_4         -0.1338      0.205     -0.654      0.513      -0.536       0.268
+MotherEd_4            0.0555      0.035      1.577      0.115      -0.014       0.125
+MotherEd_5            0.0514      0.050      1.031      0.303      -0.047       0.149
+MotherEd_6           -0.0830      0.085     -0.974      0.330      -0.250       0.084
+MotherEd_7            0.1830      0.067      2.745      0.006       0.052       0.314
+Campus_1              0.2273      0.121      1.881      0.061      -0.010       0.465
+PostulationType_1     0.1686      0.068      2.491      0.013       0.036       0.302
+==============================================================================
+Omnibus:                       36.158   Durbin-Watson:                   1.916
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.554
+Skew:                           0.497   Prob(JB):                     8.64e-13
+Kurtosis:                       4.223   Cond. No.                     1.00e+03
 ==============================================================================
 Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
+[2] The condition number is large,  1e+03. This might indicate that there are
+strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.496
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     19.29
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.96e-60
-Time:                        23:10:18   Log-Likelihood:                -157.01
-No. Observations:                 537   AIC:                             368.0
-Df Residuals:                     510   BIC:                             483.7
+Dep. Variable:               Desertor   R-squared:                       0.498
+Model:                            OLS   Adj. R-squared:                  0.473
+Method:                 Least Squares   F-statistic:                     19.50
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.99e-60
+Time:                        20:51:50   Log-Likelihood:                -155.62
+No. Observations:                 537   AIC:                             365.2
+Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6742      0.135      4.992      0.000       0.409       0.940
-S1_DRP                0.0228      0.014      1.677      0.094      -0.004       0.050
-S1_GRD_1TO19          0.0383      0.025      1.551      0.122      -0.010       0.087
-S1_GRD_4TO49         -0.0590      0.013     -4.404      0.000      -0.085      -0.033
-S1_GRD_5TO59         -0.0304      0.015     -2.029      0.043      -0.060      -0.001
-S2_BAD                0.0123      0.011      1.109      0.268      -0.009       0.034
-S2_GRD_1TO19         -0.0502      0.031     -1.639      0.102      -0.110       0.010
-S2_GRD_3TO39         -0.0540      0.018     -2.947      0.003      -0.090      -0.018
-S2_GRD_4TO49         -0.0761      0.016     -4.661      0.000      -0.108      -0.044
-S2_GRD_5TO59         -0.0576      0.017     -3.348      0.001      -0.091      -0.024
-S2_GRD_6TO7          -0.0611      0.025     -2.439      0.015      -0.110      -0.012
-S2_BEST_GRD          -0.0022      0.002     -1.262      0.208      -0.006       0.001
-S2_VS_S1             -0.0024      0.002     -1.230      0.219      -0.006       0.001
-SchoolRegion_1       -0.3090      0.120     -2.575      0.010      -0.545      -0.073
-EdTypeCode_1         -0.0681      0.057     -1.202      0.230      -0.179       0.043
-SchoolType_1          0.1430      0.073      1.949      0.052      -0.001       0.287
-SchoolType_2          0.1249      0.062      2.023      0.044       0.004       0.246
-SchoolType_4          0.1293      0.035      3.677      0.000       0.060       0.198
-MotherEd_1           -0.1274      0.069     -1.853      0.064      -0.262       0.008
-MotherEd_2           -0.1716      0.103     -1.673      0.095      -0.373       0.030
-MotherEd_3           -0.1794      0.070     -2.559      0.011      -0.317      -0.042
-MotherEd_4           -0.1875      0.087     -2.160      0.031      -0.358      -0.017
-MotherEd_5           -0.2702      0.104     -2.609      0.009      -0.474      -0.067
-MotherEd_6           -0.1313      0.077     -1.708      0.088      -0.282       0.020
-MotherEd_7           -0.1809      0.080     -2.264      0.024      -0.338      -0.024
-Campus_1              0.2809      0.112      2.514      0.012       0.061       0.500
-PostulationType_1     0.1732      0.068      2.564      0.011       0.040       0.306
-==============================================================================
-Omnibus:                       37.710   Durbin-Watson:                   1.912
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               58.654
-Skew:                           0.510   Prob(JB):                     1.83e-13
-Kurtosis:                       4.258   Cond. No.                         688.
+Ones                  0.2950      0.168      1.753      0.080      -0.036       0.625
+S1_DRP                0.0226      0.014      1.662      0.097      -0.004       0.049
+S1_GRD_1TO19          0.0392      0.025      1.581      0.114      -0.010       0.088
+S1_GRD_4TO49         -0.0584      0.013     -4.357      0.000      -0.085      -0.032
+S1_GRD_5TO59         -0.0310      0.015     -2.067      0.039      -0.061      -0.002
+S2_BAD                0.0136      0.011      1.228      0.220      -0.008       0.035
+S2_CVL               -0.0215      0.019     -1.146      0.253      -0.058       0.015
+S2_GRD_1TO19         -0.0505      0.030     -1.657      0.098      -0.110       0.009
+S2_GRD_3TO39         -0.0532      0.018     -2.893      0.004      -0.089      -0.017
+S2_GRD_4TO49         -0.0735      0.016     -4.487      0.000      -0.106      -0.041
+S2_GRD_5TO59         -0.0572      0.017     -3.339      0.001      -0.091      -0.024
+S2_GRD_6TO7          -0.0579      0.025     -2.317      0.021      -0.107      -0.009
+S2_BEST_GRD          -0.0022      0.002     -1.252      0.211      -0.006       0.001
+S2_VS_S1             -0.0025      0.002     -1.292      0.197      -0.006       0.001
+SchoolRegion_1        0.2529      0.131      1.933      0.054      -0.004       0.510
+SchoolRegion_2        0.3165      0.119      2.656      0.008       0.082       0.551
+SchoolRegion_3        0.2467      0.146      1.690      0.092      -0.040       0.534
+EdTypeCode_1          0.0937      0.082      1.143      0.253      -0.067       0.255
+EdTypeCode_2          0.0489      0.079      0.617      0.538      -0.107       0.205
+SchoolType_2         -0.1260      0.034     -3.661      0.000      -0.194      -0.058
+SchoolType_4         -0.1334      0.204     -0.653      0.514      -0.535       0.268
+MotherEd_4            0.0561      0.035      1.596      0.111      -0.013       0.125
+MotherEd_5            0.0509      0.050      1.021      0.308      -0.047       0.149
+MotherEd_6           -0.0862      0.085     -1.017      0.310      -0.253       0.080
+MotherEd_7            0.1820      0.067      2.734      0.006       0.051       0.313
+Campus_1              0.2269      0.121      1.879      0.061      -0.010       0.464
+PostulationType_1     0.1678      0.068      2.482      0.013       0.035       0.301
+==============================================================================
+Omnibus:                       36.565   Durbin-Watson:                   1.919
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.008
+Skew:                           0.502   Prob(JB):                     6.89e-13
+Kurtosis:                       4.222   Cond. No.                         996.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1142,49 +1146,49 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.495
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     20.01
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.76e-60
-Time:                        23:10:18   Log-Likelihood:                -157.65
-No. Observations:                 537   AIC:                             367.3
-Df Residuals:                     511   BIC:                             478.7
+Dep. Variable:               Desertor   R-squared:                       0.498
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     20.28
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-61
+Time:                        20:51:50   Log-Likelihood:                -155.82
+No. Observations:                 537   AIC:                             363.6
+Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7120      0.131      5.447      0.000       0.455       0.969
-S1_DRP                0.0186      0.013      1.423      0.155      -0.007       0.044
-S1_GRD_1TO19          0.0429      0.024      1.760      0.079      -0.005       0.091
-S1_GRD_4TO49         -0.0590      0.013     -4.402      0.000      -0.085      -0.033
-S1_GRD_5TO59         -0.0292      0.015     -1.950      0.052      -0.059       0.000
-S2_GRD_1TO19         -0.0537      0.030     -1.762      0.079      -0.114       0.006
-S2_GRD_3TO39         -0.0606      0.017     -3.495      0.001      -0.095      -0.027
-S2_GRD_4TO49         -0.0820      0.015     -5.318      0.000      -0.112      -0.052
-S2_GRD_5TO59         -0.0630      0.016     -3.820      0.000      -0.095      -0.031
-S2_GRD_6TO7          -0.0669      0.025     -2.727      0.007      -0.115      -0.019
-S2_BEST_GRD          -0.0022      0.002     -1.262      0.208      -0.006       0.001
-S2_VS_S1             -0.0021      0.002     -1.091      0.276      -0.006       0.002
-SchoolRegion_1       -0.3038      0.120     -2.533      0.012      -0.539      -0.068
-EdTypeCode_1         -0.0645      0.057     -1.140      0.255      -0.176       0.047
-SchoolType_1          0.1411      0.073      1.924      0.055      -0.003       0.285
-SchoolType_2          0.1276      0.062      2.067      0.039       0.006       0.249
-SchoolType_4          0.1288      0.035      3.662      0.000       0.060       0.198
-MotherEd_1           -0.1285      0.069     -1.868      0.062      -0.264       0.007
-MotherEd_2           -0.1749      0.103     -1.706      0.089      -0.376       0.027
-MotherEd_3           -0.1807      0.070     -2.577      0.010      -0.318      -0.043
-MotherEd_4           -0.1920      0.087     -2.214      0.027      -0.362      -0.022
-MotherEd_5           -0.2624      0.103     -2.538      0.011      -0.465      -0.059
-MotherEd_6           -0.1310      0.077     -1.703      0.089      -0.282       0.020
-MotherEd_7           -0.1814      0.080     -2.270      0.024      -0.338      -0.024
-Campus_1              0.2710      0.111      2.432      0.015       0.052       0.490
-PostulationType_1     0.1689      0.067      2.503      0.013       0.036       0.301
-==============================================================================
-Omnibus:                       37.683   Durbin-Watson:                   1.912
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.882
-Skew:                           0.514   Prob(JB):                     2.70e-13
-Kurtosis:                       4.237   Cond. No.                         684.
+Ones                  0.2903      0.168      1.729      0.084      -0.040       0.620
+S1_DRP                0.0227      0.014      1.673      0.095      -0.004       0.049
+S1_GRD_1TO19          0.0402      0.025      1.627      0.104      -0.008       0.089
+S1_GRD_4TO49         -0.0582      0.013     -4.345      0.000      -0.085      -0.032
+S1_GRD_5TO59         -0.0310      0.015     -2.068      0.039      -0.061      -0.002
+S2_BAD                0.0133      0.011      1.202      0.230      -0.008       0.035
+S2_CVL               -0.0219      0.019     -1.165      0.244      -0.059       0.015
+S2_GRD_1TO19         -0.0505      0.030     -1.658      0.098      -0.110       0.009
+S2_GRD_3TO39         -0.0537      0.018     -2.929      0.004      -0.090      -0.018
+S2_GRD_4TO49         -0.0739      0.016     -4.514      0.000      -0.106      -0.042
+S2_GRD_5TO59         -0.0569      0.017     -3.325      0.001      -0.091      -0.023
+S2_GRD_6TO7          -0.0587      0.025     -2.356      0.019      -0.108      -0.010
+S2_BEST_GRD          -0.0022      0.002     -1.242      0.215      -0.006       0.001
+S2_VS_S1             -0.0026      0.002     -1.344      0.180      -0.006       0.001
+SchoolRegion_1        0.2609      0.130      2.005      0.045       0.005       0.517
+SchoolRegion_2        0.3214      0.119      2.704      0.007       0.088       0.555
+SchoolRegion_3        0.2516      0.146      1.727      0.085      -0.035       0.538
+EdTypeCode_1          0.0906      0.082      1.107      0.269      -0.070       0.251
+SchoolType_2         -0.1262      0.034     -3.671      0.000      -0.194      -0.059
+SchoolType_4         -0.1154      0.202     -0.571      0.568      -0.513       0.282
+MotherEd_4            0.0568      0.035      1.619      0.106      -0.012       0.126
+MotherEd_5            0.0500      0.050      1.004      0.316      -0.048       0.148
+MotherEd_6           -0.0840      0.085     -0.991      0.322      -0.250       0.082
+MotherEd_7            0.1842      0.066      2.773      0.006       0.054       0.315
+Campus_1              0.2368      0.120      1.980      0.048       0.002       0.472
+PostulationType_1     0.1651      0.067      2.449      0.015       0.033       0.298
+==============================================================================
+Omnibus:                       36.080   Durbin-Watson:                   1.928
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               54.765
+Skew:                           0.500   Prob(JB):                     1.28e-12
+Kurtosis:                       4.203   Cond. No.                         992.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1192,48 +1196,48 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.493
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     20.78
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.05e-60
-Time:                        23:10:18   Log-Likelihood:                -158.28
-No. Observations:                 537   AIC:                             366.6
-Df Residuals:                     512   BIC:                             473.7
+Dep. Variable:               Desertor   R-squared:                       0.498
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     21.14
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.31e-61
+Time:                        20:51:50   Log-Likelihood:                -155.99
+No. Observations:                 537   AIC:                             362.0
+Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7733      0.118      6.552      0.000       0.541       1.005
-S1_DRP                0.0122      0.012      1.044      0.297      -0.011       0.035
-S1_GRD_1TO19          0.0389      0.024      1.617      0.107      -0.008       0.086
-S1_GRD_4TO49         -0.0534      0.012     -4.313      0.000      -0.078      -0.029
-S1_GRD_5TO59         -0.0210      0.013     -1.622      0.105      -0.046       0.004
-S2_GRD_1TO19         -0.0474      0.030     -1.584      0.114      -0.106       0.011
-S2_GRD_3TO39         -0.0595      0.017     -3.435      0.001      -0.094      -0.025
-S2_GRD_4TO49         -0.0840      0.015     -5.480      0.000      -0.114      -0.054
-S2_GRD_5TO59         -0.0647      0.016     -3.939      0.000      -0.097      -0.032
-S2_GRD_6TO7          -0.0636      0.024     -2.611      0.009      -0.111      -0.016
-S2_BEST_GRD          -0.0034      0.001     -2.454      0.014      -0.006      -0.001
-SchoolRegion_1       -0.2999      0.120     -2.501      0.013      -0.535      -0.064
-EdTypeCode_1         -0.0666      0.057     -1.177      0.240      -0.178       0.045
-SchoolType_1          0.1430      0.073      1.950      0.052      -0.001       0.287
-SchoolType_2          0.1253      0.062      2.031      0.043       0.004       0.246
-SchoolType_4          0.1292      0.035      3.673      0.000       0.060       0.198
-MotherEd_1           -0.1269      0.069     -1.846      0.065      -0.262       0.008
-MotherEd_2           -0.1808      0.102     -1.766      0.078      -0.382       0.020
-MotherEd_3           -0.1799      0.070     -2.566      0.011      -0.318      -0.042
-MotherEd_4           -0.1923      0.087     -2.217      0.027      -0.363      -0.022
-MotherEd_5           -0.2643      0.103     -2.557      0.011      -0.467      -0.061
-MotherEd_6           -0.1280      0.077     -1.665      0.097      -0.279       0.023
-MotherEd_7           -0.1780      0.080     -2.229      0.026      -0.335      -0.021
-Campus_1              0.2685      0.111      2.410      0.016       0.050       0.487
-PostulationType_1     0.1595      0.067      2.383      0.018       0.028       0.291
-==============================================================================
-Omnibus:                       36.924   Durbin-Watson:                   1.919
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.060
-Skew:                           0.503   Prob(JB):                     4.07e-13
-Kurtosis:                       4.240   Cond. No.                         677.
+Ones                  0.2901      0.168      1.728      0.085      -0.040       0.620
+S1_DRP                0.0228      0.014      1.678      0.094      -0.004       0.049
+S1_GRD_1TO19          0.0396      0.025      1.603      0.110      -0.009       0.088
+S1_GRD_4TO49         -0.0575      0.013     -4.315      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0305      0.015     -2.037      0.042      -0.060      -0.001
+S2_BAD                0.0137      0.011      1.234      0.218      -0.008       0.035
+S2_CVL               -0.0217      0.019     -1.157      0.248      -0.059       0.015
+S2_GRD_1TO19         -0.0506      0.030     -1.661      0.097      -0.110       0.009
+S2_GRD_3TO39         -0.0534      0.018     -2.912      0.004      -0.089      -0.017
+S2_GRD_4TO49         -0.0739      0.016     -4.523      0.000      -0.106      -0.042
+S2_GRD_5TO59         -0.0565      0.017     -3.304      0.001      -0.090      -0.023
+S2_GRD_6TO7          -0.0582      0.025     -2.339      0.020      -0.107      -0.009
+S2_BEST_GRD          -0.0022      0.002     -1.281      0.201      -0.006       0.001
+S2_VS_S1             -0.0026      0.002     -1.334      0.183      -0.006       0.001
+SchoolRegion_1        0.2622      0.130      2.017      0.044       0.007       0.518
+SchoolRegion_2        0.3233      0.119      2.723      0.007       0.090       0.557
+SchoolRegion_3        0.2489      0.146      1.711      0.088      -0.037       0.535
+EdTypeCode_1          0.0788      0.079      0.996      0.320      -0.077       0.234
+SchoolType_2         -0.1257      0.034     -3.659      0.000      -0.193      -0.058
+MotherEd_4            0.0563      0.035      1.606      0.109      -0.013       0.125
+MotherEd_5            0.0499      0.050      1.004      0.316      -0.048       0.148
+MotherEd_6           -0.0830      0.085     -0.981      0.327      -0.249       0.083
+MotherEd_7            0.1842      0.066      2.775      0.006       0.054       0.315
+Campus_1              0.2382      0.119      1.994      0.047       0.003       0.473
+PostulationType_1     0.1641      0.067      2.436      0.015       0.032       0.296
+==============================================================================
+Omnibus:                       35.818   Durbin-Watson:                   1.933
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               54.700
+Skew:                           0.495   Prob(JB):                     1.32e-12
+Kurtosis:                       4.210   Cond. No.                         992.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1241,47 +1245,47 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.492
-Model:                            OLS   Adj. R-squared:                  0.470
-Method:                 Least Squares   F-statistic:                     21.64
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.76e-61
-Time:                        23:10:18   Log-Likelihood:                -158.85
-No. Observations:                 537   AIC:                             365.7
-Df Residuals:                     513   BIC:                             468.6
+Dep. Variable:               Desertor   R-squared:                       0.497
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     22.02
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.36e-62
+Time:                        20:51:50   Log-Likelihood:                -156.50
+No. Observations:                 537   AIC:                             361.0
+Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.8115      0.112      7.230      0.000       0.591       1.032
-S1_GRD_1TO19          0.0344      0.024      1.452      0.147      -0.012       0.081
-S1_GRD_4TO49         -0.0553      0.012     -4.523      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0223      0.013     -1.731      0.084      -0.048       0.003
-S2_GRD_1TO19         -0.0486      0.030     -1.625      0.105      -0.107       0.010
-S2_GRD_3TO39         -0.0590      0.017     -3.405      0.001      -0.093      -0.025
-S2_GRD_4TO49         -0.0834      0.015     -5.445      0.000      -0.113      -0.053
-S2_GRD_5TO59         -0.0634      0.016     -3.871      0.000      -0.096      -0.031
-S2_GRD_6TO7          -0.0608      0.024     -2.512      0.012      -0.108      -0.013
-S2_BEST_GRD          -0.0038      0.001     -2.783      0.006      -0.006      -0.001
-SchoolRegion_1       -0.2955      0.120     -2.465      0.014      -0.531      -0.060
-EdTypeCode_1         -0.0661      0.057     -1.169      0.243      -0.177       0.045
-SchoolType_1          0.1445      0.073      1.971      0.049       0.000       0.289
-SchoolType_2          0.1234      0.062      2.001      0.046       0.002       0.245
-SchoolType_4          0.1291      0.035      3.670      0.000       0.060       0.198
-MotherEd_1           -0.1355      0.068     -1.985      0.048      -0.270      -0.001
-MotherEd_2           -0.1846      0.102     -1.804      0.072      -0.386       0.016
-MotherEd_3           -0.1865      0.070     -2.671      0.008      -0.324      -0.049
-MotherEd_4           -0.1967      0.087     -2.270      0.024      -0.367      -0.026
-MotherEd_5           -0.2742      0.103     -2.664      0.008      -0.476      -0.072
-MotherEd_6           -0.1327      0.077     -1.730      0.084      -0.283       0.018
-MotherEd_7           -0.1848      0.080     -2.321      0.021      -0.341      -0.028
-Campus_1              0.2711      0.111      2.434      0.015       0.052       0.490
-PostulationType_1     0.1485      0.066      2.246      0.025       0.019       0.278
-==============================================================================
-Omnibus:                       35.024   Durbin-Watson:                   1.923
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               54.242
-Skew:                           0.481   Prob(JB):                     1.67e-12
-Kurtosis:                       4.224   Cond. No.                         668.
+Ones                  0.2782      0.167      1.662      0.097      -0.051       0.607
+S1_DRP                0.0230      0.014      1.698      0.090      -0.004       0.050
+S1_GRD_1TO19          0.0399      0.025      1.616      0.107      -0.009       0.088
+S1_GRD_4TO49         -0.0570      0.013     -4.277      0.000      -0.083      -0.031
+S1_GRD_5TO59         -0.0300      0.015     -2.005      0.045      -0.059      -0.001
+S2_BAD                0.0126      0.011      1.144      0.253      -0.009       0.034
+S2_CVL               -0.0222      0.019     -1.184      0.237      -0.059       0.015
+S2_GRD_1TO19         -0.0508      0.030     -1.668      0.096      -0.111       0.009
+S2_GRD_3TO39         -0.0544      0.018     -2.971      0.003      -0.090      -0.018
+S2_GRD_4TO49         -0.0748      0.016     -4.585      0.000      -0.107      -0.043
+S2_GRD_5TO59         -0.0566      0.017     -3.315      0.001      -0.090      -0.023
+S2_GRD_6TO7          -0.0578      0.025     -2.323      0.021      -0.107      -0.009
+S2_BEST_GRD          -0.0022      0.002     -1.278      0.202      -0.006       0.001
+S2_VS_S1             -0.0026      0.002     -1.345      0.179      -0.006       0.001
+SchoolRegion_1        0.2693      0.130      2.074      0.039       0.014       0.524
+SchoolRegion_2        0.3301      0.119      2.785      0.006       0.097       0.563
+SchoolRegion_3        0.2545      0.145      1.751      0.081      -0.031       0.540
+EdTypeCode_1          0.0775      0.079      0.980      0.327      -0.078       0.233
+SchoolType_2         -0.1264      0.034     -3.681      0.000      -0.194      -0.059
+MotherEd_4            0.0627      0.034      1.820      0.069      -0.005       0.130
+MotherEd_5            0.0561      0.049      1.138      0.256      -0.041       0.153
+MotherEd_7            0.1898      0.066      2.871      0.004       0.060       0.320
+Campus_1              0.2413      0.119      2.021      0.044       0.007       0.476
+PostulationType_1     0.1644      0.067      2.442      0.015       0.032       0.297
+==============================================================================
+Omnibus:                       36.161   Durbin-Watson:                   1.933
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               54.933
+Skew:                           0.501   Prob(JB):                     1.18e-12
+Kurtosis:                       4.205   Cond. No.                         990.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1289,46 +1293,46 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.491
-Model:                            OLS   Adj. R-squared:                  0.469
-Method:                 Least Squares   F-statistic:                     22.54
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.50e-61
-Time:                        23:10:18   Log-Likelihood:                -159.56
-No. Observations:                 537   AIC:                             365.1
-Df Residuals:                     514   BIC:                             463.7
+Dep. Variable:               Desertor   R-squared:                       0.496
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     22.98
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.42e-62
+Time:                        20:51:50   Log-Likelihood:                -157.00
+No. Observations:                 537   AIC:                             360.0
+Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7545      0.101      7.460      0.000       0.556       0.953
-S1_GRD_1TO19          0.0346      0.024      1.458      0.145      -0.012       0.081
-S1_GRD_4TO49         -0.0553      0.012     -4.515      0.000      -0.079      -0.031
-S1_GRD_5TO59         -0.0222      0.013     -1.719      0.086      -0.048       0.003
-S2_GRD_1TO19         -0.0497      0.030     -1.661      0.097      -0.108       0.009
-S2_GRD_3TO39         -0.0587      0.017     -3.391      0.001      -0.093      -0.025
-S2_GRD_4TO49         -0.0834      0.015     -5.446      0.000      -0.114      -0.053
-S2_GRD_5TO59         -0.0634      0.016     -3.873      0.000      -0.096      -0.031
-S2_GRD_6TO7          -0.0616      0.024     -2.547      0.011      -0.109      -0.014
-S2_BEST_GRD          -0.0038      0.001     -2.788      0.005      -0.006      -0.001
-SchoolRegion_1       -0.3097      0.119     -2.597      0.010      -0.544      -0.075
-SchoolType_1          0.1401      0.073      1.911      0.057      -0.004       0.284
-SchoolType_2          0.1243      0.062      2.016      0.044       0.003       0.246
-SchoolType_4          0.1306      0.035      3.714      0.000       0.062       0.200
-MotherEd_1           -0.1367      0.068     -2.002      0.046      -0.271      -0.003
-MotherEd_2           -0.1804      0.102     -1.764      0.078      -0.381       0.021
-MotherEd_3           -0.1888      0.070     -2.704      0.007      -0.326      -0.052
-MotherEd_4           -0.1968      0.087     -2.271      0.024      -0.367      -0.027
-MotherEd_5           -0.2725      0.103     -2.646      0.008      -0.475      -0.070
-MotherEd_6           -0.1387      0.077     -1.811      0.071      -0.289       0.012
-MotherEd_7           -0.1888      0.080     -2.372      0.018      -0.345      -0.032
-Campus_1              0.2862      0.111      2.586      0.010       0.069       0.504
-PostulationType_1     0.1452      0.066      2.198      0.028       0.015       0.275
-==============================================================================
-Omnibus:                       35.260   Durbin-Watson:                   1.942
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.822
-Skew:                           0.489   Prob(JB):                     2.05e-12
-Kurtosis:                       4.204   Cond. No.                         664.
+Ones                  0.2789      0.167      1.666      0.096      -0.050       0.608
+S1_DRP                0.0227      0.014      1.674      0.095      -0.004       0.049
+S1_GRD_1TO19          0.0385      0.025      1.561      0.119      -0.010       0.087
+S1_GRD_4TO49         -0.0574      0.013     -4.311      0.000      -0.084      -0.031
+S1_GRD_5TO59         -0.0300      0.015     -2.005      0.046      -0.059      -0.001
+S2_BAD                0.0122      0.011      1.110      0.267      -0.009       0.034
+S2_CVL               -0.0219      0.019     -1.169      0.243      -0.059       0.015
+S2_GRD_1TO19         -0.0523      0.030     -1.720      0.086      -0.112       0.007
+S2_GRD_3TO39         -0.0538      0.018     -2.942      0.003      -0.090      -0.018
+S2_GRD_4TO49         -0.0751      0.016     -4.599      0.000      -0.107      -0.043
+S2_GRD_5TO59         -0.0573      0.017     -3.355      0.001      -0.091      -0.024
+S2_GRD_6TO7          -0.0582      0.025     -2.337      0.020      -0.107      -0.009
+S2_BEST_GRD          -0.0022      0.002     -1.281      0.201      -0.006       0.001
+S2_VS_S1             -0.0025      0.002     -1.293      0.196      -0.006       0.001
+SchoolRegion_1        0.2772      0.130      2.140      0.033       0.023       0.532
+SchoolRegion_2        0.3378      0.118      2.857      0.004       0.106       0.570
+SchoolRegion_3        0.2638      0.145      1.818      0.070      -0.021       0.549
+SchoolType_2         -0.1298      0.034     -3.800      0.000      -0.197      -0.063
+MotherEd_4            0.0621      0.034      1.801      0.072      -0.006       0.130
+MotherEd_5            0.0534      0.049      1.084      0.279      -0.043       0.150
+MotherEd_7            0.1885      0.066      2.851      0.005       0.059       0.318
+Campus_1              0.2466      0.119      2.067      0.039       0.012       0.481
+PostulationType_1     0.1635      0.067      2.429      0.016       0.031       0.296
+==============================================================================
+Omnibus:                       37.327   Durbin-Watson:                   1.942
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.613
+Skew:                           0.514   Prob(JB):                     5.09e-13
+Kurtosis:                       4.213   Cond. No.                         989.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1336,45 +1340,45 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.489
-Model:                            OLS   Adj. R-squared:                  0.468
-Method:                 Least Squares   F-statistic:                     23.46
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           8.46e-62
-Time:                        23:10:18   Log-Likelihood:                -160.67
-No. Observations:                 537   AIC:                             365.3
-Df Residuals:                     515   BIC:                             459.6
+Dep. Variable:               Desertor   R-squared:                       0.495
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     24.01
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.02e-63
+Time:                        20:51:50   Log-Likelihood:                -157.61
+No. Observations:                 537   AIC:                             359.2
+Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7753      0.100      7.735      0.000       0.578       0.972
-S1_GRD_4TO49         -0.0587      0.012     -4.884      0.000      -0.082      -0.035
-S1_GRD_5TO59         -0.0244      0.013     -1.902      0.058      -0.050       0.001
-S2_GRD_1TO19         -0.0458      0.030     -1.535      0.125      -0.104       0.013
-S2_GRD_3TO39         -0.0600      0.017     -3.467      0.001      -0.094      -0.026
-S2_GRD_4TO49         -0.0843      0.015     -5.499      0.000      -0.114      -0.054
-S2_GRD_5TO59         -0.0651      0.016     -3.977      0.000      -0.097      -0.033
-S2_GRD_6TO7          -0.0621      0.024     -2.563      0.011      -0.110      -0.014
-S2_BEST_GRD          -0.0039      0.001     -2.891      0.004      -0.007      -0.001
-SchoolRegion_1       -0.3373      0.118     -2.862      0.004      -0.569      -0.106
-SchoolType_1          0.1420      0.073      1.936      0.053      -0.002       0.286
-SchoolType_2          0.1235      0.062      1.999      0.046       0.002       0.245
-SchoolType_4          0.1316      0.035      3.739      0.000       0.062       0.201
-MotherEd_1           -0.1314      0.068     -1.925      0.055      -0.266       0.003
-MotherEd_2           -0.1834      0.102     -1.791      0.074      -0.385       0.018
-MotherEd_3           -0.1826      0.070     -2.617      0.009      -0.320      -0.046
-MotherEd_4           -0.1961      0.087     -2.260      0.024      -0.367      -0.026
-MotherEd_5           -0.2656      0.103     -2.580      0.010      -0.468      -0.063
-MotherEd_6           -0.1373      0.077     -1.791      0.074      -0.288       0.013
-MotherEd_7           -0.1813      0.079     -2.281      0.023      -0.337      -0.025
-Campus_1              0.3174      0.109      2.919      0.004       0.104       0.531
-PostulationType_1     0.1432      0.066      2.166      0.031       0.013       0.273
-==============================================================================
-Omnibus:                       33.638   Durbin-Watson:                   1.929
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               50.909
-Skew:                           0.473   Prob(JB):                     8.82e-12
-Kurtosis:                       4.174   Cond. No.                         664.
+Ones                  0.2857      0.167      1.707      0.088      -0.043       0.614
+S1_DRP                0.0235      0.014      1.737      0.083      -0.003       0.050
+S1_GRD_1TO19          0.0373      0.025      1.515      0.130      -0.011       0.086
+S1_GRD_4TO49         -0.0579      0.013     -4.353      0.000      -0.084      -0.032
+S1_GRD_5TO59         -0.0301      0.015     -2.015      0.044      -0.060      -0.001
+S2_BAD                0.0125      0.011      1.133      0.258      -0.009       0.034
+S2_CVL               -0.0221      0.019     -1.177      0.240      -0.059       0.015
+S2_GRD_1TO19         -0.0546      0.030     -1.798      0.073      -0.114       0.005
+S2_GRD_3TO39         -0.0544      0.018     -2.978      0.003      -0.090      -0.019
+S2_GRD_4TO49         -0.0758      0.016     -4.651      0.000      -0.108      -0.044
+S2_GRD_5TO59         -0.0585      0.017     -3.434      0.001      -0.092      -0.025
+S2_GRD_6TO7          -0.0583      0.025     -2.340      0.020      -0.107      -0.009
+S2_BEST_GRD          -0.0021      0.002     -1.214      0.225      -0.006       0.001
+S2_VS_S1             -0.0026      0.002     -1.347      0.179      -0.006       0.001
+SchoolRegion_1        0.2758      0.130      2.128      0.034       0.021       0.530
+SchoolRegion_2        0.3350      0.118      2.833      0.005       0.103       0.567
+SchoolRegion_3        0.2642      0.145      1.821      0.069      -0.021       0.549
+SchoolType_2         -0.1227      0.034     -3.659      0.000      -0.189      -0.057
+MotherEd_4            0.0511      0.033      1.551      0.121      -0.014       0.116
+MotherEd_7            0.1770      0.065      2.712      0.007       0.049       0.305
+Campus_1              0.2448      0.119      2.052      0.041       0.010       0.479
+PostulationType_1     0.1657      0.067      2.461      0.014       0.033       0.298
+==============================================================================
+Omnibus:                       38.077   Durbin-Watson:                   1.943
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.464
+Skew:                           0.525   Prob(JB):                     3.33e-13
+Kurtosis:                       4.211   Cond. No.                         989.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1382,44 +1386,44 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.487
-Model:                            OLS   Adj. R-squared:                  0.467
-Method:                 Least Squares   F-statistic:                     24.45
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.22e-62
-Time:                        23:10:18   Log-Likelihood:                -161.90
-No. Observations:                 537   AIC:                             365.8
-Df Residuals:                     516   BIC:                             455.8
+Dep. Variable:               Desertor   R-squared:                       0.493
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     25.14
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.83e-63
+Time:                        20:51:50   Log-Likelihood:                -158.28
+No. Observations:                 537   AIC:                             358.6
+Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.7810      0.100      7.787      0.000       0.584       0.978
-S1_GRD_4TO49         -0.0586      0.012     -4.865      0.000      -0.082      -0.035
-S1_GRD_5TO59         -0.0253      0.013     -1.974      0.049      -0.051      -0.000
-S2_GRD_3TO39         -0.0525      0.017     -3.156      0.002      -0.085      -0.020
-S2_GRD_4TO49         -0.0756      0.014     -5.300      0.000      -0.104      -0.048
-S2_GRD_5TO59         -0.0543      0.015     -3.669      0.000      -0.083      -0.025
-S2_GRD_6TO7          -0.0507      0.023     -2.196      0.029      -0.096      -0.005
-S2_BEST_GRD          -0.0048      0.001     -3.860      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3381      0.118     -2.865      0.004      -0.570      -0.106
-SchoolType_1          0.1383      0.073      1.885      0.060      -0.006       0.283
-SchoolType_2          0.1166      0.062      1.892      0.059      -0.005       0.238
-SchoolType_4          0.1309      0.035      3.714      0.000       0.062       0.200
-MotherEd_1           -0.1396      0.068     -2.049      0.041      -0.274      -0.006
-MotherEd_2           -0.2002      0.102     -1.964      0.050      -0.400    9.33e-05
-MotherEd_3           -0.1897      0.070     -2.721      0.007      -0.327      -0.053
-MotherEd_4           -0.2019      0.087     -2.326      0.020      -0.372      -0.031
-MotherEd_5           -0.2723      0.103     -2.643      0.008      -0.475      -0.070
-MotherEd_6           -0.1392      0.077     -1.814      0.070      -0.290       0.012
-MotherEd_7           -0.1872      0.080     -2.355      0.019      -0.343      -0.031
-Campus_1              0.3137      0.109      2.882      0.004       0.100       0.528
-PostulationType_1     0.1392      0.066      2.104      0.036       0.009       0.269
-==============================================================================
-Omnibus:                       32.232   Durbin-Watson:                   1.928
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               49.654
-Skew:                           0.451   Prob(JB):                     1.65e-11
-Kurtosis:                       4.186   Cond. No.                         662.
+Ones                  0.3276      0.163      2.007      0.045       0.007       0.648
+S1_DRP                0.0192      0.013      1.479      0.140      -0.006       0.045
+S1_GRD_1TO19          0.0419      0.024      1.723      0.085      -0.006       0.090
+S1_GRD_4TO49         -0.0581      0.013     -4.364      0.000      -0.084      -0.032
+S1_GRD_5TO59         -0.0289      0.015     -1.938      0.053      -0.058       0.000
+S2_CVL               -0.0216      0.019     -1.149      0.251      -0.058       0.015
+S2_GRD_1TO19         -0.0578      0.030     -1.911      0.057      -0.117       0.002
+S2_GRD_3TO39         -0.0612      0.017     -3.539      0.000      -0.095      -0.027
+S2_GRD_4TO49         -0.0819      0.015     -5.320      0.000      -0.112      -0.052
+S2_GRD_5TO59         -0.0640      0.016     -3.913      0.000      -0.096      -0.032
+S2_GRD_6TO7          -0.0641      0.024     -2.633      0.009      -0.112      -0.016
+S2_BEST_GRD          -0.0021      0.002     -1.213      0.226      -0.006       0.001
+S2_VS_S1             -0.0023      0.002     -1.204      0.229      -0.006       0.001
+SchoolRegion_1        0.2747      0.130      2.119      0.035       0.020       0.529
+SchoolRegion_2        0.3281      0.118      2.778      0.006       0.096       0.560
+SchoolRegion_3        0.2648      0.145      1.824      0.069      -0.020       0.550
+SchoolType_2         -0.1216      0.034     -3.626      0.000      -0.187      -0.056
+MotherEd_4            0.0505      0.033      1.532      0.126      -0.014       0.115
+MotherEd_7            0.1781      0.065      2.728      0.007       0.050       0.306
+Campus_1              0.2392      0.119      2.006      0.045       0.005       0.473
+PostulationType_1     0.1616      0.067      2.403      0.017       0.029       0.294
+==============================================================================
+Omnibus:                       38.077   Durbin-Watson:                   1.942
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.751
+Skew:                           0.529   Prob(JB):                     4.75e-13
+Kurtosis:                       4.190   Cond. No.                         985.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1427,43 +1431,43 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.483
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     25.45
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.94e-62
-Time:                        23:10:18   Log-Likelihood:                -163.60
-No. Observations:                 537   AIC:                             367.2
-Df Residuals:                     517   BIC:                             452.9
+Dep. Variable:               Desertor   R-squared:                       0.492
+Model:                            OLS   Adj. R-squared:                  0.474
+Method:                 Least Squares   F-statistic:                     26.37
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.62e-64
+Time:                        20:51:50   Log-Likelihood:                -158.97
+No. Observations:                 537   AIC:                             357.9
+Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6854      0.086      8.015      0.000       0.517       0.853
-S1_GRD_4TO49         -0.0571      0.012     -4.743      0.000      -0.081      -0.033
-S1_GRD_5TO59         -0.0255      0.013     -1.986      0.048      -0.051      -0.000
-S2_GRD_3TO39         -0.0513      0.017     -3.084      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0745      0.014     -5.211      0.000      -0.103      -0.046
-S2_GRD_5TO59         -0.0533      0.015     -3.595      0.000      -0.082      -0.024
-S2_GRD_6TO7          -0.0511      0.023     -2.208      0.028      -0.097      -0.006
-S2_BEST_GRD          -0.0049      0.001     -3.945      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3459      0.118     -2.926      0.004      -0.578      -0.114
-SchoolType_1          0.1464      0.073      1.995      0.047       0.002       0.291
-SchoolType_2          0.1334      0.061      2.182      0.030       0.013       0.253
-SchoolType_4          0.1354      0.035      3.841      0.000       0.066       0.205
-MotherEd_1           -0.0462      0.045     -1.033      0.302      -0.134       0.042
-MotherEd_2           -0.1074      0.088     -1.215      0.225      -0.281       0.066
-MotherEd_3           -0.0973      0.048     -2.039      0.042      -0.191      -0.004
-MotherEd_4           -0.1103      0.071     -1.559      0.120      -0.249       0.029
-MotherEd_5           -0.1787      0.089     -2.000      0.046      -0.354      -0.003
-MotherEd_7           -0.0925      0.060     -1.539      0.124      -0.210       0.026
-Campus_1              0.3175      0.109      2.911      0.004       0.103       0.532
-PostulationType_1     0.1367      0.066      2.062      0.040       0.006       0.267
-==============================================================================
-Omnibus:                       33.929   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.816
-Skew:                           0.460   Prob(JB):                     2.06e-12
-Kurtosis:                       4.248   Cond. No.                         550.
+Ones                  0.3254      0.163      1.993      0.047       0.005       0.646
+S1_DRP                0.0191      0.013      1.466      0.143      -0.006       0.045
+S1_GRD_1TO19          0.0422      0.024      1.739      0.083      -0.005       0.090
+S1_GRD_4TO49         -0.0579      0.013     -4.346      0.000      -0.084      -0.032
+S1_GRD_5TO59         -0.0277      0.015     -1.858      0.064      -0.057       0.002
+S2_GRD_1TO19         -0.0593      0.030     -1.963      0.050      -0.119    5.92e-05
+S2_GRD_3TO39         -0.0606      0.017     -3.508      0.000      -0.095      -0.027
+S2_GRD_4TO49         -0.0828      0.015     -5.382      0.000      -0.113      -0.053
+S2_GRD_5TO59         -0.0644      0.016     -3.937      0.000      -0.096      -0.032
+S2_GRD_6TO7          -0.0667      0.024     -2.749      0.006      -0.114      -0.019
+S2_BEST_GRD          -0.0022      0.002     -1.261      0.208      -0.006       0.001
+S2_VS_S1             -0.0023      0.002     -1.177      0.240      -0.006       0.002
+SchoolRegion_1        0.2719      0.130      2.098      0.036       0.017       0.527
+SchoolRegion_2        0.3252      0.118      2.753      0.006       0.093       0.557
+SchoolRegion_3        0.2657      0.145      1.830      0.068      -0.019       0.551
+SchoolType_2         -0.1249      0.033     -3.736      0.000      -0.191      -0.059
+MotherEd_4            0.0505      0.033      1.531      0.126      -0.014       0.115
+MotherEd_7            0.1778      0.065      2.723      0.007       0.050       0.306
+Campus_1              0.2417      0.119      2.027      0.043       0.007       0.476
+PostulationType_1     0.1679      0.067      2.505      0.013       0.036       0.300
+==============================================================================
+Omnibus:                       39.605   Durbin-Watson:                   1.940
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               59.944
+Skew:                           0.541   Prob(JB):                     9.62e-14
+Kurtosis:                       4.229   Cond. No.                         985.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1471,42 +1475,42 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.482
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     26.81
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.57e-62
-Time:                        23:10:18   Log-Likelihood:                -164.16
-No. Observations:                 537   AIC:                             366.3
-Df Residuals:                     518   BIC:                             447.8
+Dep. Variable:               Desertor   R-squared:                       0.491
+Model:                            OLS   Adj. R-squared:                  0.473
+Method:                 Least Squares   F-statistic:                     27.74
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.41e-64
+Time:                        20:51:50   Log-Likelihood:                -159.69
+No. Observations:                 537   AIC:                             357.4
+Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6383      0.072      8.823      0.000       0.496       0.780
-S1_GRD_4TO49         -0.0556      0.012     -4.652      0.000      -0.079      -0.032
-S1_GRD_5TO59         -0.0234      0.013     -1.847      0.065      -0.048       0.001
-S2_GRD_3TO39         -0.0514      0.017     -3.086      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0757      0.014     -5.319      0.000      -0.104      -0.048
-S2_GRD_5TO59         -0.0558      0.015     -3.820      0.000      -0.085      -0.027
-S2_GRD_6TO7          -0.0508      0.023     -2.195      0.029      -0.096      -0.005
-S2_BEST_GRD          -0.0048      0.001     -3.908      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3467      0.118     -2.932      0.004      -0.579      -0.114
-SchoolType_1          0.1433      0.073      1.953      0.051      -0.001       0.287
-SchoolType_2          0.1295      0.061      2.123      0.034       0.010       0.249
-SchoolType_4          0.1329      0.035      3.779      0.000       0.064       0.202
-MotherEd_2           -0.0758      0.083     -0.914      0.361      -0.239       0.087
-MotherEd_3           -0.0672      0.038     -1.778      0.076      -0.142       0.007
-MotherEd_4           -0.0802      0.064     -1.244      0.214      -0.207       0.046
-MotherEd_5           -0.1484      0.084     -1.758      0.079      -0.314       0.017
-MotherEd_7           -0.0638      0.053     -1.198      0.232      -0.169       0.041
-Campus_1              0.3196      0.109      2.931      0.004       0.105       0.534
-PostulationType_1     0.1526      0.064      2.366      0.018       0.026       0.279
-==============================================================================
-Omnibus:                       34.452   Durbin-Watson:                   1.930
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.282
-Skew:                           0.462   Prob(JB):                     9.90e-13
-Kurtosis:                       4.271   Cond. No.                         549.
+Ones                  0.3945      0.152      2.589      0.010       0.095       0.694
+S1_DRP                0.0122      0.012      1.049      0.295      -0.011       0.035
+S1_GRD_1TO19          0.0382      0.024      1.589      0.113      -0.009       0.086
+S1_GRD_4TO49         -0.0517      0.012     -4.221      0.000      -0.076      -0.028
+S1_GRD_5TO59         -0.0188      0.013     -1.464      0.144      -0.044       0.006
+S2_GRD_1TO19         -0.0531      0.030     -1.785      0.075      -0.112       0.005
+S2_GRD_3TO39         -0.0595      0.017     -3.445      0.001      -0.093      -0.026
+S2_GRD_4TO49         -0.0849      0.015     -5.555      0.000      -0.115      -0.055
+S2_GRD_5TO59         -0.0664      0.016     -4.082      0.000      -0.098      -0.034
+S2_GRD_6TO7          -0.0632      0.024     -2.624      0.009      -0.111      -0.016
+S2_BEST_GRD          -0.0035      0.001     -2.503      0.013      -0.006      -0.001
+SchoolRegion_1        0.2667      0.130      2.058      0.040       0.012       0.521
+SchoolRegion_2        0.3214      0.118      2.720      0.007       0.089       0.553
+SchoolRegion_3        0.2608      0.145      1.797      0.073      -0.024       0.546
+SchoolType_2         -0.1244      0.033     -3.720      0.000      -0.190      -0.059
+MotherEd_4            0.0512      0.033      1.552      0.121      -0.014       0.116
+MotherEd_7            0.1765      0.065      2.702      0.007       0.048       0.305
+Campus_1              0.2379      0.119      1.995      0.047       0.004       0.472
+PostulationType_1     0.1581      0.067      2.375      0.018       0.027       0.289
+==============================================================================
+Omnibus:                       38.537   Durbin-Watson:                   1.947
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               58.610
+Skew:                           0.527   Prob(JB):                     1.87e-13
+Kurtosis:                       4.228   Cond. No.                         976.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1514,41 +1518,41 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.481
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     28.34
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.34e-63
-Time:                        23:10:18   Log-Likelihood:                -164.59
-No. Observations:                 537   AIC:                             365.2
-Df Residuals:                     519   BIC:                             442.3
+Dep. Variable:               Desertor   R-squared:                       0.490
+Model:                            OLS   Adj. R-squared:                  0.473
+Method:                 Least Squares   F-statistic:                     29.30
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.46e-65
+Time:                        20:51:50   Log-Likelihood:                -160.26
+No. Observations:                 537   AIC:                             356.5
+Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6396      0.072      8.845      0.000       0.498       0.782
-S1_GRD_4TO49         -0.0549      0.012     -4.607      0.000      -0.078      -0.032
-S1_GRD_5TO59         -0.0240      0.013     -1.893      0.059      -0.049       0.001
-S2_GRD_3TO39         -0.0513      0.017     -3.080      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0752      0.014     -5.286      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0553      0.015     -3.786      0.000      -0.084      -0.027
-S2_GRD_6TO7          -0.0495      0.023     -2.144      0.032      -0.095      -0.004
-S2_BEST_GRD          -0.0048      0.001     -3.921      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3488      0.118     -2.952      0.003      -0.581      -0.117
-SchoolType_1          0.1424      0.073      1.941      0.053      -0.002       0.286
-SchoolType_2          0.1251      0.061      2.058      0.040       0.006       0.245
-SchoolType_4          0.1281      0.035      3.684      0.000       0.060       0.196
-MotherEd_3           -0.0619      0.037     -1.658      0.098      -0.135       0.011
-MotherEd_4           -0.0753      0.064     -1.173      0.241      -0.202       0.051
-MotherEd_5           -0.1433      0.084     -1.702      0.089      -0.309       0.022
-MotherEd_7           -0.0593      0.053     -1.118      0.264      -0.164       0.045
-Campus_1              0.3204      0.109      2.939      0.003       0.106       0.535
-PostulationType_1     0.1483      0.064      2.305      0.022       0.022       0.275
-==============================================================================
-Omnibus:                       34.726   Durbin-Watson:                   1.931
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.684
-Skew:                           0.466   Prob(JB):                     8.10e-13
-Kurtosis:                       4.273   Cond. No.                         549.
+Ones                  0.4351      0.147      2.952      0.003       0.145       0.725
+S1_GRD_1TO19          0.0336      0.024      1.422      0.156      -0.013       0.080
+S1_GRD_4TO49         -0.0536      0.012     -4.425      0.000      -0.077      -0.030
+S1_GRD_5TO59         -0.0201      0.013     -1.568      0.117      -0.045       0.005
+S2_GRD_1TO19         -0.0546      0.030     -1.835      0.067      -0.113       0.004
+S2_GRD_3TO39         -0.0589      0.017     -3.412      0.001      -0.093      -0.025
+S2_GRD_4TO49         -0.0843      0.015     -5.517      0.000      -0.114      -0.054
+S2_GRD_5TO59         -0.0652      0.016     -4.018      0.000      -0.097      -0.033
+S2_GRD_6TO7          -0.0604      0.024     -2.524      0.012      -0.107      -0.013
+S2_BEST_GRD          -0.0038      0.001     -2.839      0.005      -0.006      -0.001
+SchoolRegion_1        0.2580      0.129      1.995      0.047       0.004       0.512
+SchoolRegion_2        0.3172      0.118      2.687      0.007       0.085       0.549
+SchoolRegion_3        0.2518      0.145      1.738      0.083      -0.033       0.537
+SchoolType_2         -0.1241      0.033     -3.713      0.000      -0.190      -0.058
+MotherEd_4            0.0487      0.033      1.481      0.139      -0.016       0.113
+MotherEd_7            0.1823      0.065      2.800      0.005       0.054       0.310
+Campus_1              0.2362      0.119      1.981      0.048       0.002       0.470
+PostulationType_1     0.1471      0.066      2.239      0.026       0.018       0.276
+==============================================================================
+Omnibus:                       36.640   Durbin-Watson:                   1.951
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               55.866
+Skew:                           0.505   Prob(JB):                     7.39e-13
+Kurtosis:                       4.215   Cond. No.                         970.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1556,40 +1560,40 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.480
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     30.02
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.42e-63
-Time:                        23:10:18   Log-Likelihood:                -165.24
-No. Observations:                 537   AIC:                             364.5
-Df Residuals:                     520   BIC:                             437.3
+Dep. Variable:               Desertor   R-squared:                       0.488
+Model:                            OLS   Adj. R-squared:                  0.472
+Method:                 Least Squares   F-statistic:                     30.95
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.50e-65
+Time:                        20:51:50   Log-Likelihood:                -161.30
+No. Observations:                 537   AIC:                             356.6
+Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6419      0.072      8.878      0.000       0.500       0.784
-S1_GRD_4TO49         -0.0557      0.012     -4.676      0.000      -0.079      -0.032
-S1_GRD_5TO59         -0.0254      0.013     -2.013      0.045      -0.050      -0.001
-S2_GRD_3TO39         -0.0515      0.017     -3.091      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0750      0.014     -5.275      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0538      0.015     -3.701      0.000      -0.082      -0.025
-S2_GRD_6TO7          -0.0491      0.023     -2.125      0.034      -0.094      -0.004
-S2_BEST_GRD          -0.0049      0.001     -3.958      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3474      0.118     -2.939      0.003      -0.580      -0.115
-SchoolType_1          0.1484      0.073      2.029      0.043       0.005       0.292
-SchoolType_2          0.1299      0.061      2.141      0.033       0.011       0.249
-SchoolType_4          0.1295      0.035      3.727      0.000       0.061       0.198
-MotherEd_3           -0.0533      0.037     -1.458      0.145      -0.125       0.019
-MotherEd_4           -0.0667      0.064     -1.046      0.296      -0.192       0.059
-MotherEd_5           -0.1345      0.084     -1.604      0.109      -0.299       0.030
-Campus_1              0.3161      0.109      2.900      0.004       0.102       0.530
-PostulationType_1     0.1393      0.064      2.182      0.030       0.014       0.265
-==============================================================================
-Omnibus:                       35.037   Durbin-Watson:                   1.932
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.544
-Skew:                           0.467   Prob(JB):                     5.27e-13
-Kurtosis:                       4.286   Cond. No.                         549.
+Ones                  0.4300      0.148      2.915      0.004       0.140       0.720
+S1_GRD_4TO49         -0.0570      0.012     -4.792      0.000      -0.080      -0.034
+S1_GRD_5TO59         -0.0223      0.013     -1.748      0.081      -0.047       0.003
+S2_GRD_1TO19         -0.0504      0.030     -1.702      0.089      -0.109       0.008
+S2_GRD_3TO39         -0.0602      0.017     -3.489      0.001      -0.094      -0.026
+S2_GRD_4TO49         -0.0849      0.015     -5.556      0.000      -0.115      -0.055
+S2_GRD_5TO59         -0.0668      0.016     -4.124      0.000      -0.099      -0.035
+S2_GRD_6TO7          -0.0609      0.024     -2.541      0.011      -0.108      -0.014
+S2_BEST_GRD          -0.0039      0.001     -2.933      0.004      -0.007      -0.001
+SchoolRegion_1        0.2878      0.128      2.253      0.025       0.037       0.539
+SchoolRegion_2        0.3441      0.117      2.950      0.003       0.115       0.573
+SchoolRegion_3        0.2930      0.142      2.061      0.040       0.014       0.572
+SchoolType_2         -0.1256      0.033     -3.755      0.000      -0.191      -0.060
+MotherEd_4            0.0493      0.033      1.499      0.134      -0.015       0.114
+MotherEd_7            0.1780      0.065      2.735      0.006       0.050       0.306
+Campus_1              0.2695      0.117      2.303      0.022       0.040       0.499
+PostulationType_1     0.1452      0.066      2.207      0.028       0.016       0.274
+==============================================================================
+Omnibus:                       34.578   Durbin-Watson:                   1.939
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               52.352
+Skew:                           0.484   Prob(JB):                     4.28e-12
+Kurtosis:                       4.184   Cond. No.                         958.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1597,39 +1601,39 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.479
-Model:                            OLS   Adj. R-squared:                  0.464
-Method:                 Least Squares   F-statistic:                     31.94
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.20e-64
-Time:                        23:10:18   Log-Likelihood:                -165.80
-No. Observations:                 537   AIC:                             363.6
-Df Residuals:                     521   BIC:                             432.2
+Dep. Variable:               Desertor   R-squared:                       0.486
+Model:                            OLS   Adj. R-squared:                  0.471
+Method:                 Least Squares   F-statistic:                     32.78
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-65
+Time:                        20:51:50   Log-Likelihood:                -162.46
+No. Observations:                 537   AIC:                             356.9
+Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.6467      0.072      8.961      0.000       0.505       0.788
-S1_GRD_4TO49         -0.0567      0.012     -4.779      0.000      -0.080      -0.033
-S1_GRD_5TO59         -0.0255      0.013     -2.018      0.044      -0.050      -0.001
-S2_GRD_3TO39         -0.0519      0.017     -3.119      0.002      -0.085      -0.019
-S2_GRD_4TO49         -0.0750      0.014     -5.270      0.000      -0.103      -0.047
-S2_GRD_5TO59         -0.0537      0.015     -3.689      0.000      -0.082      -0.025
-S2_GRD_6TO7          -0.0502      0.023     -2.175      0.030      -0.096      -0.005
-S2_BEST_GRD          -0.0049      0.001     -3.962      0.000      -0.007      -0.002
-SchoolRegion_1       -0.3454      0.118     -2.922      0.004      -0.578      -0.113
-SchoolType_1          0.1409      0.073      1.935      0.053      -0.002       0.284
-SchoolType_2          0.1258      0.061      2.077      0.038       0.007       0.245
-SchoolType_4          0.1259      0.035      3.640      0.000       0.058       0.194
-MotherEd_3           -0.0465      0.036     -1.293      0.197      -0.117       0.024
-MotherEd_5           -0.1284      0.084     -1.535      0.126      -0.293       0.036
-Campus_1              0.3134      0.109      2.876      0.004       0.099       0.527
-PostulationType_1     0.1341      0.064      2.107      0.036       0.009       0.259
-==============================================================================
-Omnibus:                       35.580   Durbin-Watson:                   1.933
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               57.543
-Skew:                           0.472   Prob(JB):                     3.20e-13
-Kurtosis:                       4.296   Cond. No.                         549.
+Ones                  0.4817      0.144      3.355      0.001       0.200       0.764
+S1_GRD_4TO49         -0.0594      0.012     -5.031      0.000      -0.083      -0.036
+S1_GRD_5TO59         -0.0260      0.013     -2.076      0.038      -0.051      -0.001
+S2_GRD_1TO19         -0.0482      0.030     -1.628      0.104      -0.106       0.010
+S2_GRD_3TO39         -0.0596      0.017     -3.451      0.001      -0.093      -0.026
+S2_GRD_4TO49         -0.0823      0.015     -5.412      0.000      -0.112      -0.052
+S2_GRD_5TO59         -0.0620      0.016     -3.900      0.000      -0.093      -0.031
+S2_GRD_6TO7          -0.0599      0.024     -2.498      0.013      -0.107      -0.013
+S2_BEST_GRD          -0.0041      0.001     -3.074      0.002      -0.007      -0.001
+SchoolRegion_1        0.2908      0.128      2.274      0.023       0.040       0.542
+SchoolRegion_2        0.3418      0.117      2.926      0.004       0.112       0.571
+SchoolRegion_3        0.2999      0.142      2.108      0.035       0.020       0.579
+SchoolType_2         -0.1226      0.033     -3.667      0.000      -0.188      -0.057
+MotherEd_7            0.1617      0.064      2.517      0.012       0.036       0.288
+Campus_1              0.2674      0.117      2.282      0.023       0.037       0.498
+PostulationType_1     0.1149      0.063      1.833      0.067      -0.008       0.238
+==============================================================================
+Omnibus:                       35.881   Durbin-Watson:                   1.932
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               53.735
+Skew:                           0.503   Prob(JB):                     2.15e-12
+Kurtosis:                       4.179   Cond. No.                         957.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1637,184 +1641,37 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.477
-Model:                            OLS   Adj. R-squared:                  0.463
-Method:                 Least Squares   F-statistic:                     34.06
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.59e-64
-Time:                        23:10:18   Log-Likelihood:                -166.66
-No. Observations:                 537   AIC:                             363.3
-Df Residuals:                     522   BIC:                             427.6
-Df Model:                          14                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6546      0.072      9.097      0.000       0.513       0.796
-S1_GRD_4TO49         -0.0578      0.012     -4.883      0.000      -0.081      -0.035
-S1_GRD_5TO59         -0.0268      0.013     -2.132      0.033      -0.052      -0.002
-S2_GRD_3TO39         -0.0509      0.017     -3.058      0.002      -0.084      -0.018
-S2_GRD_4TO49         -0.0736      0.014     -5.187      0.000      -0.102      -0.046
-S2_GRD_5TO59         -0.0525      0.015     -3.615      0.000      -0.081      -0.024
-S2_GRD_6TO7          -0.0500      0.023     -2.164      0.031      -0.095      -0.005
-S2_BEST_GRD          -0.0050      0.001     -4.028      0.000      -0.007      -0.003
-SchoolRegion_1       -0.3383      0.118     -2.863      0.004      -0.570      -0.106
-SchoolType_1          0.1318      0.073      1.817      0.070      -0.011       0.274
-SchoolType_2          0.1178      0.060      1.955      0.051      -0.001       0.236
-SchoolType_4          0.1188      0.034      3.478      0.001       0.052       0.186
-MotherEd_5           -0.1171      0.083     -1.407      0.160      -0.281       0.046
-Campus_1              0.3062      0.109      2.812      0.005       0.092       0.520
-PostulationType_1     0.1233      0.063      1.953      0.051      -0.001       0.247
-==============================================================================
-Omnibus:                       37.612   Durbin-Watson:                   1.927
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               59.932
-Skew:                           0.500   Prob(JB):                     9.68e-14
-Kurtosis:                       4.295   Cond. No.                         548.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.475
-Model:                            OLS   Adj. R-squared:                  0.462
-Method:                 Least Squares   F-statistic:                     36.46
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           6.74e-65
-Time:                        23:10:18   Log-Likelihood:                -167.68
-No. Observations:                 537   AIC:                             363.4
-Df Residuals:                     523   BIC:                             423.4
+Dep. Variable:               Desertor   R-squared:                       0.480
+Model:                            OLS   Adj. R-squared:                  0.467
+Method:                 Least Squares   F-statistic:                     37.10
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.13e-66
+Time:                        20:51:50   Log-Likelihood:                -165.46
+No. Observations:                 537   AIC:                             358.9
+Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         
 Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6556      0.072      9.104      0.000       0.514       0.797
-S1_GRD_4TO49         -0.0572      0.012     -4.830      0.000      -0.081      -0.034
-S1_GRD_5TO59         -0.0264      0.013     -2.099      0.036      -0.051      -0.002
-S2_GRD_3TO39         -0.0514      0.017     -3.088      0.002      -0.084      -0.019
-S2_GRD_4TO49         -0.0739      0.014     -5.201      0.000      -0.102      -0.046
-S2_GRD_5TO59         -0.0517      0.015     -3.559      0.000      -0.080      -0.023
-S2_GRD_6TO7          -0.0484      0.023     -2.095      0.037      -0.094      -0.003
-S2_BEST_GRD          -0.0050      0.001     -4.084      0.000      -0.007      -0.003
-SchoolRegion_1       -0.3474      0.118     -2.942      0.003      -0.579      -0.115
-SchoolType_1          0.1259      0.072      1.737      0.083      -0.016       0.268
-SchoolType_2          0.1180      0.060      1.956      0.051      -0.000       0.237
-SchoolType_4          0.1186      0.034      3.467      0.001       0.051       0.186
-Campus_1              0.3099      0.109      2.844      0.005       0.096       0.524
-PostulationType_1     0.1200      0.063      1.900      0.058      -0.004       0.244
-==============================================================================
-Omnibus:                       38.382   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               60.715
-Skew:                           0.511   Prob(JB):                     6.54e-14
-Kurtosis:                       4.291   Cond. No.                         548.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.472
-Model:                            OLS   Adj. R-squared:                  0.460
-Method:                 Least Squares   F-statistic:                     39.10
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.58e-65
-Time:                        23:10:18   Log-Likelihood:                -169.22
-No. Observations:                 537   AIC:                             364.4
-Df Residuals:                     524   BIC:                             420.2
-Df Model:                          12                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6702      0.072      9.351      0.000       0.529       0.811
-S1_GRD_4TO49         -0.0570      0.012     -4.805      0.000      -0.080      -0.034
-S1_GRD_5TO59         -0.0260      0.013     -2.058      0.040      -0.051      -0.001
-S2_GRD_3TO39         -0.0509      0.017     -3.053      0.002      -0.084      -0.018
-S2_GRD_4TO49         -0.0713      0.014     -5.039      0.000      -0.099      -0.044
-S2_GRD_5TO59         -0.0519      0.015     -3.565      0.000      -0.080      -0.023
-S2_GRD_6TO7          -0.0460      0.023     -1.994      0.047      -0.091      -0.001
-S2_BEST_GRD          -0.0052      0.001     -4.227      0.000      -0.008      -0.003
-SchoolRegion_1       -0.3606      0.118     -3.055      0.002      -0.593      -0.129
-SchoolType_2          0.0978      0.059      1.649      0.100      -0.019       0.214
-SchoolType_4          0.0988      0.032      3.058      0.002       0.035       0.162
-Campus_1              0.3192      0.109      2.927      0.004       0.105       0.533
-PostulationType_1     0.1281      0.063      2.030      0.043       0.004       0.252
-==============================================================================
-Omnibus:                       36.436   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               56.886
-Skew:                           0.494   Prob(JB):                     4.44e-13
-Kurtosis:                       4.251   Cond. No.                         546.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.470
-Model:                            OLS   Adj. R-squared:                  0.459
-Method:                 Least Squares   F-statistic:                     42.27
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.59e-65
-Time:                        23:10:18   Log-Likelihood:                -170.61
-No. Observations:                 537   AIC:                             365.2
-Df Residuals:                     525   BIC:                             416.7
-Df Model:                          11                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6877      0.071      9.688      0.000       0.548       0.827
-S1_GRD_4TO49         -0.0572      0.012     -4.808      0.000      -0.081      -0.034
-S1_GRD_5TO59         -0.0263      0.013     -2.081      0.038      -0.051      -0.001
-S2_GRD_3TO39         -0.0496      0.017     -2.972      0.003      -0.082      -0.017
-S2_GRD_4TO49         -0.0706      0.014     -4.979      0.000      -0.098      -0.043
-S2_GRD_5TO59         -0.0501      0.015     -3.444      0.001      -0.079      -0.022
-S2_GRD_6TO7          -0.0416      0.023     -1.811      0.071      -0.087       0.004
-S2_BEST_GRD          -0.0054      0.001     -4.404      0.000      -0.008      -0.003
-SchoolRegion_1       -0.3738      0.118     -3.168      0.002      -0.606      -0.142
-SchoolType_4          0.0792      0.030      2.632      0.009       0.020       0.138
-Campus_1              0.3413      0.108      3.149      0.002       0.128       0.554
-PostulationType_1     0.1325      0.063      2.099      0.036       0.009       0.257
-==============================================================================
-Omnibus:                       38.198   Durbin-Watson:                   1.938
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               58.775
-Skew:                           0.519   Prob(JB):                     1.73e-13
-Kurtosis:                       4.245   Cond. No.                         544.
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.466
-Model:                            OLS   Adj. R-squared:                  0.456
-Method:                 Least Squares   F-statistic:                     45.97
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.85e-65
-Time:                        23:10:18   Log-Likelihood:                -172.29
-No. Observations:                 537   AIC:                             366.6
-Df Residuals:                     526   BIC:                             413.7
-Df Model:                          10                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.6942      0.071      9.771      0.000       0.555       0.834
-S1_GRD_4TO49         -0.0540      0.012     -4.581      0.000      -0.077      -0.031
-S1_GRD_5TO59         -0.0302      0.012     -2.425      0.016      -0.055      -0.006
-S2_GRD_3TO39         -0.0384      0.016     -2.471      0.014      -0.069      -0.008
-S2_GRD_4TO49         -0.0612      0.013     -4.628      0.000      -0.087      -0.035
-S2_GRD_5TO59         -0.0441      0.014     -3.108      0.002      -0.072      -0.016
-S2_BEST_GRD          -0.0067      0.001     -6.579      0.000      -0.009      -0.005
-SchoolRegion_1       -0.3882      0.118     -3.290      0.001      -0.620      -0.156
-SchoolType_4          0.0775      0.030      2.570      0.010       0.018       0.137
-Campus_1              0.3463      0.109      3.189      0.002       0.133       0.560
-PostulationType_1     0.1377      0.063      2.180      0.030       0.014       0.262
-==============================================================================
-Omnibus:                       43.509   Durbin-Watson:                   1.954
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.598
-Skew:                           0.574   Prob(JB):                     2.10e-15
-Kurtosis:                       4.306   Cond. No.                         543.
+==================================================================================
+                     coef    std err          t      P&gt;|t|      [0.025      0.975]
+----------------------------------------------------------------------------------
+Ones               0.5822      0.130      4.494      0.000       0.328       0.837
+S1_GRD_4TO49      -0.0581      0.012     -4.914      0.000      -0.081      -0.035
+S1_GRD_5TO59      -0.0276      0.013     -2.198      0.028      -0.052      -0.003
+S2_GRD_3TO39      -0.0498      0.017     -2.999      0.003      -0.082      -0.017
+S2_GRD_4TO49      -0.0735      0.014     -5.161      0.000      -0.101      -0.046
+S2_GRD_5TO59      -0.0508      0.014     -3.514      0.000      -0.079      -0.022
+S2_GRD_6TO7       -0.0502      0.023     -2.192      0.029      -0.095      -0.005
+S2_BEST_GRD       -0.0050      0.001     -4.101      0.000      -0.007      -0.003
+SchoolRegion_1     0.2935      0.128      2.288      0.023       0.041       0.545
+SchoolRegion_2     0.3372      0.117      2.877      0.004       0.107       0.567
+SchoolRegion_3     0.3075      0.142      2.158      0.031       0.028       0.587
+SchoolType_2      -0.1244      0.033     -3.718      0.000      -0.190      -0.059
+MotherEd_7         0.1737      0.064      2.703      0.007       0.047       0.300
+Campus_1           0.2607      0.118      2.218      0.027       0.030       0.492
+==============================================================================
+Omnibus:                       31.960   Durbin-Watson:                   1.924
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               47.418
+Skew:                           0.461   Prob(JB):                     5.05e-11
+Kurtosis:                       4.127   Cond. No.                         948.
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -2381,15 +2238,15 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.140625" style="2"/>
@@ -2412,70 +2269,70 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>36</v>
@@ -2520,14 +2377,15 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="2"/>
@@ -2550,67 +2408,67 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>36</v>
@@ -2655,14 +2513,15 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="2"/>
@@ -2682,67 +2541,67 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>36</v>
@@ -2787,14 +2646,15 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9.140625" style="2"/>
@@ -2814,64 +2674,64 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>36</v>
@@ -2916,14 +2776,14 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="2"/>
@@ -2943,61 +2803,61 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>36</v>
@@ -3043,13 +2903,13 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="2"/>
@@ -3078,49 +2938,49 @@
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>36</v>
@@ -3165,12 +3025,14 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="2"/>
@@ -3196,49 +3058,49 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>36</v>
@@ -3283,11 +3145,14 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="2"/>
@@ -3313,46 +3178,46 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>36</v>
@@ -3396,11 +3261,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9.140625" style="2"/>
@@ -3414,64 +3283,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>39</v>
@@ -3506,11 +3375,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="2"/>
@@ -3524,61 +3397,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>39</v>
@@ -3776,11 +3649,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
@@ -3794,58 +3671,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>39</v>
@@ -3880,11 +3757,15 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="2"/>
@@ -3898,55 +3779,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>39</v>
@@ -3981,11 +3862,13 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="2"/>
@@ -3999,52 +3882,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>39</v>
@@ -4079,11 +3962,12 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
@@ -4097,49 +3981,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>39</v>
@@ -4174,11 +4058,11 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
@@ -4192,46 +4076,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>39</v>
@@ -4266,11 +4150,11 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
@@ -4290,40 +4174,40 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>40</v>
@@ -4355,11 +4239,11 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
@@ -4379,37 +4263,37 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>40</v>
@@ -4443,8 +4327,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4483,16 +4367,16 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>40</v>
@@ -4526,10 +4410,10 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -4565,19 +4449,19 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
@@ -4586,82 +4470,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4687,8 +4495,8 @@
     <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="38" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="9.140625" style="2"/>
@@ -4786,13 +4594,13 @@
         <v>30</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>35</v>
@@ -4822,216 +4630,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5051,14 +4649,14 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="37" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="37" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="9.140625" style="2"/>
@@ -5096,73 +4694,73 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>36</v>
@@ -5206,16 +4804,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="36" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="36" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="2"/>
@@ -5232,91 +4830,91 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>36</v>
@@ -5360,16 +4958,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="28" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9.140625" style="2"/>
@@ -5386,88 +4984,88 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>36</v>
@@ -5511,16 +5109,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="9.140625" style="2"/>
@@ -5537,85 +5135,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>36</v>
@@ -5659,16 +5257,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="2"/>
@@ -5685,82 +5283,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>36</v>
@@ -5804,16 +5402,16 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="2"/>
@@ -5830,79 +5428,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>36</v>

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811487C6-65F9-4B70-AEA8-04453F7F757C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912BA89-C314-4560-9166-9A13E5A708AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        20:51:50   Log-Likelihood:                -154.98
+Time:                        20:59:52   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -252,7 +252,7 @@
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        20:51:50   Log-Likelihood:                -154.98
+Time:                        20:59:52   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -319,7 +319,7 @@
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        20:51:50   Log-Likelihood:                -154.98
+Time:                        20:59:52   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -385,7 +385,7 @@
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        20:51:50   Log-Likelihood:                -154.99
+Time:                        20:59:52   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -450,7 +450,7 @@
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.97e-54
-Time:                        20:51:50   Log-Likelihood:                -154.99
+Time:                        20:59:52   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -514,7 +514,7 @@
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.59e-54
-Time:                        20:51:50   Log-Likelihood:                -154.99
+Time:                        20:59:52   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -577,7 +577,7 @@
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.30e-55
-Time:                        20:51:50   Log-Likelihood:                -155.03
+Time:                        20:59:52   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -639,7 +639,7 @@
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.14e-55
-Time:                        20:51:50   Log-Likelihood:                -155.06
+Time:                        20:59:52   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -700,7 +700,7 @@
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.98e-56
-Time:                        20:51:50   Log-Likelihood:                -155.09
+Time:                        20:59:52   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -760,7 +760,7 @@
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.50e-57
-Time:                        20:51:50   Log-Likelihood:                -155.10
+Time:                        20:59:52   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -819,7 +819,7 @@
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.91e-57
-Time:                        20:51:50   Log-Likelihood:                -155.15
+Time:                        20:59:52   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -877,7 +877,7 @@
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.91e-58
-Time:                        20:51:50   Log-Likelihood:                -155.22
+Time:                        20:59:52   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -934,7 +934,7 @@
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-58
-Time:                        20:51:50   Log-Likelihood:                -155.27
+Time:                        20:59:52   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -990,7 +990,7 @@
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.10e-59
-Time:                        20:51:50   Log-Likelihood:                -155.37
+Time:                        20:59:52   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1045,7 +1045,7 @@
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.16e-60
-Time:                        20:51:50   Log-Likelihood:                -155.53
+Time:                        20:59:52   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1099,7 +1099,7 @@
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.99e-60
-Time:                        20:51:50   Log-Likelihood:                -155.62
+Time:                        20:59:52   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1150,7 +1150,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-61
-Time:                        20:51:50   Log-Likelihood:                -155.82
+Time:                        20:59:52   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1200,7 +1200,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.31e-61
-Time:                        20:51:50   Log-Likelihood:                -155.99
+Time:                        20:59:52   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1249,7 +1249,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.36e-62
-Time:                        20:51:50   Log-Likelihood:                -156.50
+Time:                        20:59:52   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1297,7 +1297,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.42e-62
-Time:                        20:51:50   Log-Likelihood:                -157.00
+Time:                        20:59:52   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1344,7 +1344,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.02e-63
-Time:                        20:51:50   Log-Likelihood:                -157.61
+Time:                        20:59:52   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1390,7 +1390,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.83e-63
-Time:                        20:51:50   Log-Likelihood:                -158.28
+Time:                        20:59:52   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1435,7 +1435,7 @@
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.62e-64
-Time:                        20:51:50   Log-Likelihood:                -158.97
+Time:                        20:59:52   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1479,7 +1479,7 @@
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.41e-64
-Time:                        20:51:50   Log-Likelihood:                -159.69
+Time:                        20:59:52   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1522,7 +1522,7 @@
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.46e-65
-Time:                        20:51:50   Log-Likelihood:                -160.26
+Time:                        20:59:52   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1564,7 +1564,7 @@
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.50e-65
-Time:                        20:51:50   Log-Likelihood:                -161.30
+Time:                        20:59:52   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1605,7 +1605,7 @@
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-65
-Time:                        20:51:50   Log-Likelihood:                -162.46
+Time:                        20:59:52   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1645,7 +1645,7 @@
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.13e-66
-Time:                        20:51:50   Log-Likelihood:                -165.46
+Time:                        20:59:52   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912BA89-C314-4560-9166-9A13E5A708AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63316A65-E4A8-4163-BBBD-6C45338D052B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        20:59:52   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-51
+Time:                        16:11:22   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        20:59:52   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.89e-52
+Time:                        16:11:22   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        20:59:52   Log-Likelihood:                -154.98
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.04e-53
+Time:                        16:11:22   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        20:59:52   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.21e-53
+Time:                        16:11:22   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.97e-54
-Time:                        20:59:52   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.97e-54
+Time:                        16:11:22   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.59e-54
-Time:                        20:59:52   Log-Likelihood:                -154.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.59e-54
+Time:                        16:11:22   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.30e-55
-Time:                        20:59:52   Log-Likelihood:                -155.03
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.30e-55
+Time:                        16:11:22   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.14e-55
-Time:                        20:59:52   Log-Likelihood:                -155.06
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.14e-55
+Time:                        16:11:22   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.98e-56
-Time:                        20:59:52   Log-Likelihood:                -155.09
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.98e-56
+Time:                        16:11:22   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.50e-57
-Time:                        20:59:52   Log-Likelihood:                -155.10
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.50e-57
+Time:                        16:11:22   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.91e-57
-Time:                        20:59:52   Log-Likelihood:                -155.15
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.91e-57
+Time:                        16:11:22   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.91e-58
-Time:                        20:59:52   Log-Likelihood:                -155.22
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.91e-58
+Time:                        16:11:22   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.22e-58
-Time:                        20:59:52   Log-Likelihood:                -155.27
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-58
+Time:                        16:11:22   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.10e-59
-Time:                        20:59:52   Log-Likelihood:                -155.37
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.10e-59
+Time:                        16:11:22   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.16e-60
-Time:                        20:59:52   Log-Likelihood:                -155.53
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.16e-60
+Time:                        16:11:22   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.99e-60
-Time:                        20:59:52   Log-Likelihood:                -155.62
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.99e-60
+Time:                        16:11:23   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.22e-61
-Time:                        20:59:52   Log-Likelihood:                -155.82
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-61
+Time:                        16:11:23   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.31e-61
-Time:                        20:59:52   Log-Likelihood:                -155.99
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.31e-61
+Time:                        16:11:23   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.36e-62
-Time:                        20:59:52   Log-Likelihood:                -156.50
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.36e-62
+Time:                        16:11:23   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.42e-62
-Time:                        20:59:52   Log-Likelihood:                -157.00
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.42e-62
+Time:                        16:11:23   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.02e-63
-Time:                        20:59:52   Log-Likelihood:                -157.61
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.02e-63
+Time:                        16:11:23   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.83e-63
-Time:                        20:59:52   Log-Likelihood:                -158.28
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.83e-63
+Time:                        16:11:23   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.62e-64
-Time:                        20:59:52   Log-Likelihood:                -158.97
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.62e-64
+Time:                        16:11:23   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.41e-64
-Time:                        20:59:52   Log-Likelihood:                -159.69
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.41e-64
+Time:                        16:11:23   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.46e-65
-Time:                        20:59:52   Log-Likelihood:                -160.26
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.46e-65
+Time:                        16:11:23   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.50e-65
-Time:                        20:59:52   Log-Likelihood:                -161.30
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.50e-65
+Time:                        16:11:23   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.78e-65
-Time:                        20:59:52   Log-Likelihood:                -162.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-65
+Time:                        16:11:23   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.13e-66
-Time:                        20:59:52   Log-Likelihood:                -165.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.13e-66
+Time:                        16:11:23   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63316A65-E4A8-4163-BBBD-6C45338D052B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B78801-B4E3-43A6-B2FB-35A2CD78D1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.03e-51
-Time:                        16:11:22   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        23:19:00   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.89e-52
-Time:                        16:11:22   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        23:19:00   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.04e-53
-Time:                        16:11:22   Log-Likelihood:                -154.98
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        23:19:00   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.21e-53
-Time:                        16:11:22   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        23:19:00   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.97e-54
-Time:                        16:11:22   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        23:19:00   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.59e-54
-Time:                        16:11:22   Log-Likelihood:                -154.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        23:19:00   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.30e-55
-Time:                        16:11:22   Log-Likelihood:                -155.03
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        23:19:00   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.14e-55
-Time:                        16:11:22   Log-Likelihood:                -155.06
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        23:19:00   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.98e-56
-Time:                        16:11:22   Log-Likelihood:                -155.09
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        23:19:00   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.50e-57
-Time:                        16:11:22   Log-Likelihood:                -155.10
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        23:19:00   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.91e-57
-Time:                        16:11:22   Log-Likelihood:                -155.15
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        23:19:00   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.91e-58
-Time:                        16:11:22   Log-Likelihood:                -155.22
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        23:19:00   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.22e-58
-Time:                        16:11:22   Log-Likelihood:                -155.27
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        23:19:00   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.10e-59
-Time:                        16:11:22   Log-Likelihood:                -155.37
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        23:19:00   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.16e-60
-Time:                        16:11:22   Log-Likelihood:                -155.53
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        23:19:00   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.99e-60
-Time:                        16:11:23   Log-Likelihood:                -155.62
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        23:19:00   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.22e-61
-Time:                        16:11:23   Log-Likelihood:                -155.82
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        23:19:00   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.31e-61
-Time:                        16:11:23   Log-Likelihood:                -155.99
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        23:19:00   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.36e-62
-Time:                        16:11:23   Log-Likelihood:                -156.50
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        23:19:00   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.42e-62
-Time:                        16:11:23   Log-Likelihood:                -157.00
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        23:19:00   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.02e-63
-Time:                        16:11:23   Log-Likelihood:                -157.61
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        23:19:00   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.83e-63
-Time:                        16:11:23   Log-Likelihood:                -158.28
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        23:19:00   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.62e-64
-Time:                        16:11:23   Log-Likelihood:                -158.97
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        23:19:00   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.41e-64
-Time:                        16:11:23   Log-Likelihood:                -159.69
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        23:19:00   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.46e-65
-Time:                        16:11:23   Log-Likelihood:                -160.26
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        23:19:00   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.50e-65
-Time:                        16:11:23   Log-Likelihood:                -161.30
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        23:19:00   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.78e-65
-Time:                        16:11:23   Log-Likelihood:                -162.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        23:19:00   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.13e-66
-Time:                        16:11:23   Log-Likelihood:                -165.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        23:19:00   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B78801-B4E3-43A6-B2FB-35A2CD78D1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC550B2-486E-4DC1-B011-E3F99FCE8D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="41" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        23:19:00   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        20:48:52   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        23:19:00   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        20:48:53   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        23:19:00   Log-Likelihood:                -154.98
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        20:48:53   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        23:19:00   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        20:48:53   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        23:19:00   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        20:48:53   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        23:19:00   Log-Likelihood:                -154.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        20:48:53   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        23:19:00   Log-Likelihood:                -155.03
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        20:48:53   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        23:19:00   Log-Likelihood:                -155.06
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        20:48:53   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        23:19:00   Log-Likelihood:                -155.09
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        20:48:53   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        23:19:00   Log-Likelihood:                -155.10
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        20:48:53   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        23:19:00   Log-Likelihood:                -155.15
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        20:48:53   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        23:19:00   Log-Likelihood:                -155.22
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        20:48:53   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        23:19:00   Log-Likelihood:                -155.27
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        20:48:53   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        23:19:00   Log-Likelihood:                -155.37
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        20:48:53   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        23:19:00   Log-Likelihood:                -155.53
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        20:48:53   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        23:19:00   Log-Likelihood:                -155.62
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        20:48:53   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        23:19:00   Log-Likelihood:                -155.82
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        20:48:53   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        23:19:00   Log-Likelihood:                -155.99
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        20:48:53   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        23:19:00   Log-Likelihood:                -156.50
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        20:48:53   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        23:19:00   Log-Likelihood:                -157.00
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        20:48:53   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        23:19:00   Log-Likelihood:                -157.61
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        20:48:53   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        23:19:00   Log-Likelihood:                -158.28
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        20:48:53   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        23:19:00   Log-Likelihood:                -158.97
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        20:48:53   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        23:19:00   Log-Likelihood:                -159.69
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        20:48:53   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        23:19:00   Log-Likelihood:                -160.26
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        20:48:53   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        23:19:00   Log-Likelihood:                -161.30
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        20:48:53   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        23:19:00   Log-Likelihood:                -162.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        20:48:53   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        23:19:00   Log-Likelihood:                -165.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        20:48:53   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC550B2-486E-4DC1-B011-E3F99FCE8D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE8D0AB-21C4-4F95-B5FD-1E5994607AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        20:48:52   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        21:22:31   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        20:48:53   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        21:22:31   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        20:48:53   Log-Likelihood:                -154.98
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        21:22:31   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        20:48:53   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        21:22:31   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        20:48:53   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        21:22:31   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        20:48:53   Log-Likelihood:                -154.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        21:22:32   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        20:48:53   Log-Likelihood:                -155.03
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        21:22:32   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        20:48:53   Log-Likelihood:                -155.06
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        21:22:32   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        20:48:53   Log-Likelihood:                -155.09
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        21:22:32   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        20:48:53   Log-Likelihood:                -155.10
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        21:22:32   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        20:48:53   Log-Likelihood:                -155.15
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        21:22:32   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        20:48:53   Log-Likelihood:                -155.22
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        21:22:32   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        20:48:53   Log-Likelihood:                -155.27
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        21:22:32   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        20:48:53   Log-Likelihood:                -155.37
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        21:22:32   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        20:48:53   Log-Likelihood:                -155.53
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        21:22:32   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        20:48:53   Log-Likelihood:                -155.62
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        21:22:32   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        20:48:53   Log-Likelihood:                -155.82
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        21:22:32   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        20:48:53   Log-Likelihood:                -155.99
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        21:22:32   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        20:48:53   Log-Likelihood:                -156.50
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        21:22:32   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        20:48:53   Log-Likelihood:                -157.00
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        21:22:32   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        20:48:53   Log-Likelihood:                -157.61
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        21:22:32   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        20:48:53   Log-Likelihood:                -158.28
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        21:22:32   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        20:48:53   Log-Likelihood:                -158.97
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        21:22:32   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        20:48:53   Log-Likelihood:                -159.69
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        21:22:32   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        20:48:53   Log-Likelihood:                -160.26
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        21:22:32   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        20:48:53   Log-Likelihood:                -161.30
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        21:22:32   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        20:48:53   Log-Likelihood:                -162.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        21:22:32   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        20:48:53   Log-Likelihood:                -165.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        21:22:32   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         

--- a/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nS1S2_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nS1S2_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE8D0AB-21C4-4F95-B5FD-1E5994607AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A927D98F-B6F4-4234-9157-B6814BA21823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="41" sheetId="1" r:id="rId1"/>
@@ -183,8 +183,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.458
 Method:                 Least Squares   F-statistic:                     12.06
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.03e-51
-Time:                        21:22:31   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.03e-51
+Time:                        19:07:36   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             394.0
 Df Residuals:                     495   BIC:                             574.0
 Df Model:                          41                                         
@@ -251,8 +251,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.459
 Method:                 Least Squares   F-statistic:                     12.38
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.89e-52
-Time:                        21:22:31   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.89e-52
+Time:                        19:07:36   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             392.0
 Df Residuals:                     496   BIC:                             567.7
 Df Model:                          40                                         
@@ -318,8 +318,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.460
 Method:                 Least Squares   F-statistic:                     12.73
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.04e-53
-Time:                        21:22:31   Log-Likelihood:                -154.98
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.04e-53
+Time:                        19:07:36   Log-Likelihood:                -154.98
 No. Observations:                 537   AIC:                             390.0
 Df Residuals:                     497   BIC:                             561.4
 Df Model:                          39                                         
@@ -384,8 +384,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.461
 Method:                 Least Squares   F-statistic:                     13.09
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.21e-53
-Time:                        21:22:31   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.21e-53
+Time:                        19:07:36   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             388.0
 Df Residuals:                     498   BIC:                             555.1
 Df Model:                          38                                         
@@ -449,8 +449,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.463
 Method:                 Least Squares   F-statistic:                     13.47
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.97e-54
-Time:                        21:22:31   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.97e-54
+Time:                        19:07:36   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             386.0
 Df Residuals:                     499   BIC:                             548.8
 Df Model:                          37                                         
@@ -513,8 +513,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.464
 Method:                 Least Squares   F-statistic:                     13.87
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.59e-54
-Time:                        21:22:32   Log-Likelihood:                -154.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.59e-54
+Time:                        19:07:36   Log-Likelihood:                -154.99
 No. Observations:                 537   AIC:                             384.0
 Df Residuals:                     500   BIC:                             542.6
 Df Model:                          36                                         
@@ -576,8 +576,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.465
 Method:                 Least Squares   F-statistic:                     14.29
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.30e-55
-Time:                        21:22:32   Log-Likelihood:                -155.03
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.30e-55
+Time:                        19:07:36   Log-Likelihood:                -155.03
 No. Observations:                 537   AIC:                             382.1
 Df Residuals:                     501   BIC:                             536.4
 Df Model:                          35                                         
@@ -638,8 +638,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.500
 Model:                            OLS   Adj. R-squared:                  0.466
 Method:                 Least Squares   F-statistic:                     14.74
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.14e-55
-Time:                        21:22:32   Log-Likelihood:                -155.06
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.14e-55
+Time:                        19:07:36   Log-Likelihood:                -155.06
 No. Observations:                 537   AIC:                             380.1
 Df Residuals:                     502   BIC:                             530.1
 Df Model:                          34                                         
@@ -699,8 +699,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     15.21
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.98e-56
-Time:                        21:22:32   Log-Likelihood:                -155.09
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.98e-56
+Time:                        19:07:36   Log-Likelihood:                -155.09
 No. Observations:                 537   AIC:                             378.2
 Df Residuals:                     503   BIC:                             523.9
 Df Model:                          33                                         
@@ -759,8 +759,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.468
 Method:                 Least Squares   F-statistic:                     15.71
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.50e-57
-Time:                        21:22:32   Log-Likelihood:                -155.10
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.50e-57
+Time:                        19:07:36   Log-Likelihood:                -155.10
 No. Observations:                 537   AIC:                             376.2
 Df Residuals:                     504   BIC:                             517.6
 Df Model:                          32                                         
@@ -818,8 +818,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.469
 Method:                 Least Squares   F-statistic:                     16.25
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.91e-57
-Time:                        21:22:32   Log-Likelihood:                -155.15
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.91e-57
+Time:                        19:07:36   Log-Likelihood:                -155.15
 No. Observations:                 537   AIC:                             374.3
 Df Residuals:                     505   BIC:                             511.4
 Df Model:                          31                                         
@@ -876,8 +876,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     16.81
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.91e-58
-Time:                        21:22:32   Log-Likelihood:                -155.22
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.91e-58
+Time:                        19:07:36   Log-Likelihood:                -155.22
 No. Observations:                 537   AIC:                             372.4
 Df Residuals:                     506   BIC:                             505.3
 Df Model:                          30                                         
@@ -933,8 +933,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.470
 Method:                 Least Squares   F-statistic:                     17.42
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.22e-58
-Time:                        21:22:32   Log-Likelihood:                -155.27
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.22e-58
+Time:                        19:07:36   Log-Likelihood:                -155.27
 No. Observations:                 537   AIC:                             370.5
 Df Residuals:                     507   BIC:                             499.1
 Df Model:                          29                                         
@@ -989,8 +989,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     18.07
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.10e-59
-Time:                        21:22:32   Log-Likelihood:                -155.37
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.10e-59
+Time:                        19:07:36   Log-Likelihood:                -155.37
 No. Observations:                 537   AIC:                             368.7
 Df Residuals:                     508   BIC:                             493.0
 Df Model:                          28                                         
@@ -1044,8 +1044,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.499
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     18.75
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.16e-60
-Time:                        21:22:32   Log-Likelihood:                -155.53
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.16e-60
+Time:                        19:07:36   Log-Likelihood:                -155.53
 No. Observations:                 537   AIC:                             367.1
 Df Residuals:                     509   BIC:                             487.1
 Df Model:                          27                                         
@@ -1098,8 +1098,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     19.50
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.99e-60
-Time:                        21:22:32   Log-Likelihood:                -155.62
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.99e-60
+Time:                        19:07:36   Log-Likelihood:                -155.62
 No. Observations:                 537   AIC:                             365.2
 Df Residuals:                     510   BIC:                             481.0
 Df Model:                          26                                         
@@ -1149,8 +1149,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     20.28
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.22e-61
-Time:                        21:22:32   Log-Likelihood:                -155.82
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.22e-61
+Time:                        19:07:36   Log-Likelihood:                -155.82
 No. Observations:                 537   AIC:                             363.6
 Df Residuals:                     511   BIC:                             475.1
 Df Model:                          25                                         
@@ -1199,8 +1199,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.498
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     21.14
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.31e-61
-Time:                        21:22:32   Log-Likelihood:                -155.99
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.31e-61
+Time:                        19:07:37   Log-Likelihood:                -155.99
 No. Observations:                 537   AIC:                             362.0
 Df Residuals:                     512   BIC:                             469.1
 Df Model:                          24                                         
@@ -1248,8 +1248,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.497
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.02
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.36e-62
-Time:                        21:22:32   Log-Likelihood:                -156.50
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.36e-62
+Time:                        19:07:37   Log-Likelihood:                -156.50
 No. Observations:                 537   AIC:                             361.0
 Df Residuals:                     513   BIC:                             463.9
 Df Model:                          23                                         
@@ -1296,8 +1296,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.496
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     22.98
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.42e-62
-Time:                        21:22:32   Log-Likelihood:                -157.00
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.42e-62
+Time:                        19:07:37   Log-Likelihood:                -157.00
 No. Observations:                 537   AIC:                             360.0
 Df Residuals:                     514   BIC:                             458.6
 Df Model:                          22                                         
@@ -1343,8 +1343,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.495
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     24.01
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.02e-63
-Time:                        21:22:32   Log-Likelihood:                -157.61
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.02e-63
+Time:                        19:07:37   Log-Likelihood:                -157.61
 No. Observations:                 537   AIC:                             359.2
 Df Residuals:                     515   BIC:                             453.5
 Df Model:                          21                                         
@@ -1389,8 +1389,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.493
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     25.14
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.83e-63
-Time:                        21:22:32   Log-Likelihood:                -158.28
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.83e-63
+Time:                        19:07:37   Log-Likelihood:                -158.28
 No. Observations:                 537   AIC:                             358.6
 Df Residuals:                     516   BIC:                             448.6
 Df Model:                          20                                         
@@ -1434,8 +1434,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.492
 Model:                            OLS   Adj. R-squared:                  0.474
 Method:                 Least Squares   F-statistic:                     26.37
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.62e-64
-Time:                        21:22:32   Log-Likelihood:                -158.97
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.62e-64
+Time:                        19:07:37   Log-Likelihood:                -158.97
 No. Observations:                 537   AIC:                             357.9
 Df Residuals:                     517   BIC:                             443.7
 Df Model:                          19                                         
@@ -1478,8 +1478,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.491
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     27.74
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.41e-64
-Time:                        21:22:32   Log-Likelihood:                -159.69
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.41e-64
+Time:                        19:07:37   Log-Likelihood:                -159.69
 No. Observations:                 537   AIC:                             357.4
 Df Residuals:                     518   BIC:                             438.8
 Df Model:                          18                                         
@@ -1521,8 +1521,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.490
 Model:                            OLS   Adj. R-squared:                  0.473
 Method:                 Least Squares   F-statistic:                     29.30
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.46e-65
-Time:                        21:22:32   Log-Likelihood:                -160.26
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.46e-65
+Time:                        19:07:37   Log-Likelihood:                -160.26
 No. Observations:                 537   AIC:                             356.5
 Df Residuals:                     519   BIC:                             433.7
 Df Model:                          17                                         
@@ -1563,8 +1563,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.488
 Model:                            OLS   Adj. R-squared:                  0.472
 Method:                 Least Squares   F-statistic:                     30.95
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.50e-65
-Time:                        21:22:32   Log-Likelihood:                -161.30
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.50e-65
+Time:                        19:07:37   Log-Likelihood:                -161.30
 No. Observations:                 537   AIC:                             356.6
 Df Residuals:                     520   BIC:                             429.5
 Df Model:                          16                                         
@@ -1604,8 +1604,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.486
 Model:                            OLS   Adj. R-squared:                  0.471
 Method:                 Least Squares   F-statistic:                     32.78
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.78e-65
-Time:                        21:22:32   Log-Likelihood:                -162.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.78e-65
+Time:                        19:07:37   Log-Likelihood:                -162.46
 No. Observations:                 537   AIC:                             356.9
 Df Residuals:                     521   BIC:                             425.5
 Df Model:                          15                                         
@@ -1644,8 +1644,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.480
 Model:                            OLS   Adj. R-squared:                  0.467
 Method:                 Least Squares   F-statistic:                     37.10
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.13e-66
-Time:                        21:22:32   Log-Likelihood:                -165.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.13e-66
+Time:                        19:07:37   Log-Likelihood:                -165.46
 No. Observations:                 537   AIC:                             358.9
 Df Residuals:                     523   BIC:                             418.9
 Df Model:                          13                                         
